--- a/ReadMe.txt/PATENTES.xlsx
+++ b/ReadMe.txt/PATENTES.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanp\OneDrive\Documentos\EXCELS PATENTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEDE6FD-08A7-4D01-A8C5-7F2AE933B8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A55970-4B65-4E81-9B83-F4BF70DE146E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F03C349B-0D6B-4AA9-B8B5-9754A49FB0B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="625">
   <si>
     <t>Expediente No.</t>
   </si>
@@ -1622,9 +1623,6 @@
 A47D 13/10</t>
   </si>
   <si>
-    <t>SISTEMA DE ALMACENAMIENTO DE ENERGÍA Y MÉTODO DE FABRICACIÓN DEL MISMO</t>
-  </si>
-  <si>
     <t>BOTÓN DE TIMBRE INALÁMBRICO AUTOALIMENTADO PARA VEHÍCULOS DE TRANSPORTE DE PASAJEROS</t>
   </si>
   <si>
@@ -2629,12 +2627,271 @@
 A61K 8/18,_x000D_
 A61K 8/65</t>
   </si>
+  <si>
+    <t>UsuarioId</t>
+  </si>
+  <si>
+    <t>Solicitante</t>
+  </si>
+  <si>
+    <t>WAGU S.A.S</t>
+  </si>
+  <si>
+    <t>LANDERS Y CIA. S.A.S.</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LA SABANA</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE MEDELLIN</t>
+  </si>
+  <si>
+    <t>Softys S.A</t>
+  </si>
+  <si>
+    <t>SERIES INTERNATIONAL LLC</t>
+  </si>
+  <si>
+    <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
+  </si>
+  <si>
+    <t>TECSA S3 S.A.S</t>
+  </si>
+  <si>
+    <t>CORPORACIÓN UNIVERSITARIA DE SANTA ROSA DE CABAL UNISARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCIAL RAEE SAS </t>
+  </si>
+  <si>
+    <t>EVEREST PRINTED SOLUTIONS SAS</t>
+  </si>
+  <si>
+    <t>EDEMCO SAS</t>
+  </si>
+  <si>
+    <t>QINGDAO RAINBOW CHEMICAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>PARTES Y COMPLEMENTOS PLÁSTICOS S.A.S.</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD MARIANA</t>
+  </si>
+  <si>
+    <t>CORPORACIÓN COLOMBIANA DE INVESTIGACIÓN AGROPECUARIA - AGROSAVIA,_x000D_
+VISUALITI SAS</t>
+  </si>
+  <si>
+    <t>HERO MOTOCORP LIMITED</t>
+  </si>
+  <si>
+    <t>EQUINORTE S.A.</t>
+  </si>
+  <si>
+    <t>Técnicos en Combustión y Tratamiento de Aguas TECCA SAS</t>
+  </si>
+  <si>
+    <t>GALQUI S.A.S</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD CATÓLICA DE CUENCA</t>
+  </si>
+  <si>
+    <t>SUCESORES DE JOSE JESUS RESTREPO &amp; CIA. S.A. CASA LUKER S.A.</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DEL VALLE</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS CUESTA QUINTERO,_x000D_
+Roberto Calvo</t>
+  </si>
+  <si>
+    <t>Eclo S.A.S</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD NACIONAL DE COLOMBIA,_x000D_
+UNIVERSIDAD AUTONOMA METROPOLITANA</t>
+  </si>
+  <si>
+    <t>JM HIDROGENO VERDE S.A.S</t>
+  </si>
+  <si>
+    <t>Yongnong Biosciences Co.,
+Ningxia YongNong BioSciences CO.</t>
+  </si>
+  <si>
+    <t>CASALUKER S.A.</t>
+  </si>
+  <si>
+    <t>FOCA MOBILIDADE DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>MEALS DE COLOMBIA S.A.S.</t>
+  </si>
+  <si>
+    <t>PONTIFICIA UNIVERSIDAD JAVERIANA</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD PONTIFICIA BOLIVARIANA</t>
+  </si>
+  <si>
+    <t>LABORATORIOS SILANES S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>ceps engineering sas</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DISTRITAL FRANCISCO JOSE DE CALDAS</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD SERGIO ARBOLEDA,_x000D_
+GUSTAVO ADOLFO  TORRES DUQUE</t>
+  </si>
+  <si>
+    <t>COLEGIO MAYOR DE NUESTRA SEÑORA DEL ROSARIO,_x000D_
+FUNDACIÓN CARDIOINFANTIL - INSTITUTO DE CARDIOLOGÍA</t>
+  </si>
+  <si>
+    <t>PROTECNICA INGENIERIA S.A.S.</t>
+  </si>
+  <si>
+    <t>TabBrands Inc.</t>
+  </si>
+  <si>
+    <t>INDUSTRIA DE EMPAQUETADURAS INDEPACK SAS</t>
+  </si>
+  <si>
+    <t>SERUM INSTITUTE OF INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>TRAVEL-WALLET CO., LTD.</t>
+  </si>
+  <si>
+    <t>ECOPETROL  S.A.</t>
+  </si>
+  <si>
+    <t>CORPORACION UNIVERSITARIA DEL HUILA</t>
+  </si>
+  <si>
+    <t>GRAPHENE INVESTMENTS SAS</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD INDUSTRIAL DE SANTANDER,_x000D_
+ECOPETROL  S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIPUX. S.A.S. </t>
+  </si>
+  <si>
+    <t>MAXDRONE SAS</t>
+  </si>
+  <si>
+    <t>BIOMANDARINO S.A.S</t>
+  </si>
+  <si>
+    <t>Guarany Indústria e Comécio Ltda</t>
+  </si>
+  <si>
+    <t>218 mechanical s.a.s</t>
+  </si>
+  <si>
+    <t>BIOCOLD TECHNOLOGIES S.AS. BIC</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE ANTIOQUIA,_x000D_
+PRÓTESIS AVANZADAS S.A.S.,_x000D_
+FUNDACIÓN HOSPITALARIA SAN VICENTE DE PAÚL</t>
+  </si>
+  <si>
+    <t>Frank David  Gómez Pinto</t>
+  </si>
+  <si>
+    <t>ASADORES EL BARRIL SAS</t>
+  </si>
+  <si>
+    <t>WEG EQUIPAMENTOS ELÉTRICOS S.A</t>
+  </si>
+  <si>
+    <t>DALHOUSIE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>POLARISDRONE SAS</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD INDUSTRIAL DE SANTANDER,_x000D_
+UNIDADES TECNOLOGICAS DE SANTANDER</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD LA GRAN COLOMBIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSB CAPITAL GROUP SAS </t>
+  </si>
+  <si>
+    <t>SERVICIO NACIONAL DE APRENDIZAJE SENA,_x000D_
+UNIVERSIDAD INDUSTRIAL DE SANTANDER,_x000D_
+ECOPETROL  S.A.</t>
+  </si>
+  <si>
+    <t>RSG INTERNATIONAL CORP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS FERNANDO VELEZ ZULUAGA,_x000D_
+HUGO ANDRES LOPEZ </t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE BOYACÁ</t>
+  </si>
+  <si>
+    <t>ENER-RAM S.A.S.</t>
+  </si>
+  <si>
+    <t>COLEGIO MAYOR DE NUESTRA SEÑORA DEL ROSARIO,_x000D_
+CORPORACION HOSPITALARIA JUAN CIUDAD</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD EAFIT</t>
+  </si>
+  <si>
+    <t>SANADORES AMBIENTALES SANAM COMPANY S.A.S.</t>
+  </si>
+  <si>
+    <t>REIFENHÄUSER GMBH &amp; CO. KG MASCHINENFABRIK</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE CARTAGENA</t>
+  </si>
+  <si>
+    <t>DVA AGRO GMBH</t>
+  </si>
+  <si>
+    <t>SEB S.A.</t>
+  </si>
+  <si>
+    <t>ALPINA PRODUCTOS ALIMENTICIOS S.A.S. - BIC.</t>
+  </si>
+  <si>
+    <t>LIFEFACTORS S.A.S.,_x000D_
+LifeFactors Zona Franca SAS,_x000D_
+LifeFactors Canadá (LifeFactors IP LP)</t>
+  </si>
+  <si>
+    <t>INDUSTRIA MILITAR - INDUMIL</t>
+  </si>
+  <si>
+    <t>Papier-Mettler KG</t>
+  </si>
+  <si>
+    <t>3LOX LLC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2660,6 +2917,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2724,11 +2985,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2745,10 +3007,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6DE4103F-8534-4EE2-A9EE-C89FAAA5DEC4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3080,18 +3391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95D8AF-C5E2-41CF-BA0F-FF7FF5E28C56}">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="35.77734375" customWidth="1"/>
+    <col min="1" max="10" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3116,8 +3427,14 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5492342","NC2024/0016928")</f>
         <v>NC2024/0016928</v>
@@ -3143,12 +3460,16 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" t="str">
         <f>"INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('"&amp;TRIM(CLEAN(A2))&amp;"','"&amp;CLEAN(B2)&amp;"','"&amp;CLEAN(C2)&amp;"','"&amp;TEXT(D2,"yyyy-MM-dd")&amp;"','"&amp;CLEAN(E2)&amp;"','"&amp;CLEAN(F2)&amp;"','"&amp;CLEAN(G2)&amp;"','"&amp;TRIM(CLEAN(H2))&amp;"');"</f>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0016928','Patente de Invención Nacional','PIEZA MODULAR Y ENSAMBLE POR TESELACIÓN','2024-12-10','Publicada sin pago','Miguel Esteban Beltrán González','MANUEL ANTONIO GUERRERO GAITAN ','B44C 3/12,E03B 11/14,E03F 1/00,F17C 3/00,E02B 11/00,E04B 1/343,E01C 5/00,E01C 5/06');</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5515529","NC2024/0018294")</f>
         <v>NC2024/0018294</v>
@@ -3174,12 +3495,16 @@
       <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="0">"INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('"&amp;TRIM(CLEAN(A3))&amp;"','"&amp;CLEAN(B3)&amp;"','"&amp;CLEAN(C3)&amp;"','"&amp;TEXT(D3,"yyyy-MM-dd")&amp;"','"&amp;CLEAN(E3)&amp;"','"&amp;CLEAN(F3)&amp;"','"&amp;CLEAN(G3)&amp;"','"&amp;TRIM(CLEAN(H3))&amp;"');"</f>
+      <c r="I3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="0">"INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('"&amp;TRIM(CLEAN(A3))&amp;"','"&amp;CLEAN(B3)&amp;"','"&amp;CLEAN(C3)&amp;"','"&amp;TEXT(D3,"yyyy-MM-dd")&amp;"','"&amp;CLEAN(E3)&amp;"','"&amp;CLEAN(F3)&amp;"','"&amp;CLEAN(G3)&amp;"','"&amp;TRIM(CLEAN(H3))&amp;"');"</f>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018294','Patente de Invención Nacional','CARCASA DE DOS TAPAS','2024-12-30','Publicada sin pago','WALTER ROLANDO GALVEZ RENDON','WALTER ANTONIO GALVEZ URREGO','H01L 41/053,H01L 41/23,H01R 4/64,H02K 5/00');</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5497136","NC2024/0017135")</f>
         <v>NC2024/0017135</v>
@@ -3205,12 +3530,16 @@
       <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0017135','Patente de Invención Nacional','CALDERO ELÉCTRICO PARA HACER ARROZ, CALENTAR Y FREÍR','2024-12-13','Publicada sin pago','Alberto Ceballos Sierra,Jaime Sierra Rivera ','ALICIA LLOREDA RICAURTE','A47J 27/00,A47J 27/62,H05B 1/02,A23L 7/10,A23P 30/00');</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4782355","NC2023/0009283")</f>
         <v>NC2023/0009283</v>
@@ -3236,12 +3565,16 @@
       <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0009283','Patente de Invención Nacional','ORDENADOR MOLECULAR','2023-07-13','Publicada sin pago','SANTIAGO ESCOBAR VELASQUEZ','WILLIAM PARRA BARAJAS','C10L 1/00,C10L 1/02,F02M 25/00,F02M 27/00,F02M 27/04');</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5522161","NC2025/0000130")</f>
         <v>NC2025/0000130</v>
@@ -3267,12 +3600,16 @@
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0000130','Patente de Invención Nacional','PROCESO BASADO EN REDES NEURONALES PARA DETERMINAR PROBABILIDAD DE ENFERMEDAD PULMONAR OBSTRUCTIVA CRONICA (EPOC)','2025-01-09','Publicada sin pago','LUIS FERNANDO GIRALDO CADAVID,Daniel Alfonso Botero Rosas,ADRIANA MALDONADO FRANCO','CLAUDIA LUCIA CARO RAMIREZ','G01N 33/543,G01N 33/68,C12Q 1/6883,C12Q 1/689,A61B 5/08,G16H 10/60,G16H 50/30');</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5418791","NC2024/0014227")</f>
         <v>NC2024/0014227</v>
@@ -3298,12 +3635,16 @@
       <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0014227','Patente de Invención Nacional','COLORANTES A BASE DE NOPAL Y MÉTODOS DE PREPARACIÓN DE LOS MISMOS','2024-10-18','Publicada sin pago','LINA  MARIA  CHICA OSORIO ,MAURICIO  VASQUEZ RENDÓN,Andrea Zuluaga Ríos,Juliana Mejía Tangarife,David Florencio Montes de la Espriella,Sharik Dayhan Herrera Chaverra','MAURICIO JARAMILLO CAMPUZANO','C09B 61/00,C09B 67/54');</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5469221","NC2024/0015931")</f>
         <v>NC2024/0015931</v>
@@ -3329,12 +3670,16 @@
       <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0015931','Patente de Invención Nacional','ARTÍCULO ABSORBENTE DESECHABLE CON CAPACIDAD DE DISTRIBUCIÓN DE FLUIDO ABSORBIDO MEJORADO EN EL SENTIDO LONGITUDINAL','2024-11-22','Publicada sin pago','Tomás Luis AMIAMA DI MARZIO','CLAUDIA LUCIA CARO RAMIREZ','A61F 5/44,A61F 13/15,A61F 13/49,A61F 13/511,A61F 13/53,B32B 3/24,B32B 27/12');</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5469641","NC2024/0015956")</f>
         <v>NC2024/0015956</v>
@@ -3360,12 +3705,16 @@
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0015956','Patente de Invención Nacional','COMPOSICIÓN QUÍMICA CON CARACTERÍSTICAS FÍSICO-QUÍMICAS QUE LA ASEMEJAN A UN FLUIDO MENSTRUAL FEMENINO.','2024-11-25','Publicada sin pago','Tomás Luis AMIAMA DI MARZIO,Karina Andrea SANCHEZ TREJO','CLAUDIA LUCIA CARO RAMIREZ','A61F 13/00,A61F 13/15,A61F 13/472,A61F 13/49,A61F 13/511,A61F 13/514,A61F 13/515,A61F 13/53,A61L 15/00');</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5526168","NC2025/0000266")</f>
         <v>NC2025/0000266</v>
@@ -3391,12 +3740,16 @@
       <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0000266','Patente de Invención Nacional','DISPOSITIVO PARA AUTOMATIZAR ACCIONES DE COBRO TRIBUTARIO','2025-01-13','Publicada sin pago','NATALIA COLORADO BETANCOURT','NATALIA COLORADO BETANCOURT','G06G 7/00,G10L 13/00,G10L 15/00,G10L 15/01');</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4785255","NC2023/0009453")</f>
         <v>NC2023/0009453</v>
@@ -3422,12 +3775,16 @@
       <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0009453','Patente de Invención Nacional','MECANISMO DE CONEXIÓN DEL ASIENTO CON COMPONENTES METÁLICOS Y POLIMÉRICOS','2023-07-14','Publicada sin pago','ALVARO MAURICIO OLARTE','LUIS FELIPE CASTILLO GIBSONE','E05D 5/10,E05D 5/14,A47C 1/00,A47C 1/02,A47C 1/121,A47C 7/58,A47C 21/00');</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5285966","NC2024/0009441")</f>
         <v>NC2024/0009441</v>
@@ -3453,12 +3810,16 @@
       <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0009441','Patente de Invención Nacional','MÁQUINA MODULAR, CÍCLICA Y ROTATORIA PARA SELECCIÓN Y CLASIFICACIÓN ÓPTICA DE FRUTOS DE CAFÉ','2024-07-17','Publicada sin pago','YILVER ALEXIS CRUZ ORTIZ,WEIMAR ANDRES CRUZ ORTIZ','YILVER ALEXIS CRUZ ORTIZ','B07B 4/02,B07B 9/00,B07C 5/00,B07C 5/02,B07C 5/34,B07C 5/342,B07C 5/36,G01J 3/46');</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5449983","NC2024/0015319")</f>
         <v>NC2024/0015319</v>
@@ -3484,12 +3845,16 @@
       <c r="H13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0015319','Patente de Invención Nacional','SISTEMA DE OPTIMIZACIÓN Y DESVÍO INTELIGENTE DE AGUA PARA CALENTADORES DE GAS DOMÉSTICOS','2024-11-10','Publicada sin pago','Daniel  López Tabares,Carlos Emilio López Ciro','Daniel  López Tabares','F24H 1/00,F24H 1/10,F24H 1/14,F24H 1/18,F24H 3/04,F24H 9/12,F24H 9/20,F24D 17/00');</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5416378","NC2024/0014055")</f>
         <v>NC2024/0014055</v>
@@ -3513,12 +3878,16 @@
         <v>57</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" t="str">
+      <c r="I14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0014055','Patente de Invención Nacional','MÉTODO Y APARATO PARA REVESTIR HILOS METÁLICOS Y NO METÁLICOS CON PLÁSTICO','2024-10-17','Publicada sin pago','Marco Antonio Iturriza Moreno','Marco Antonio Iturriza Moreno','');</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5511320","NC2024/0018023")</f>
         <v>NC2024/0018023</v>
@@ -3544,12 +3913,16 @@
       <c r="H15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018023','Patente de Invención Nacional','SISTEMA DE SUSPENSIÓN POSTERIOR PARA VEHICULOS ELÉCTRICO DE TRANSPORTE DE CARGA','2024-12-26','Publicada sin pago','Rosemberg ESPINEL FORERO,JOHN FEDDY  TRAIANA VARGAS,Carlos Montenegro,ROBERTO IREGUI','LIZBETH CALVO','B60P 1/00,B60P 1/64,B60P 3/00,B60P 9/00,B60G 3/24,B60G 11/46,B62D 21/11,B60G 3/12,B60G 3/20,B60G 7/00,B60G 11/27,B60G 21/05');</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5511334","NC2024/0018031")</f>
         <v>NC2024/0018031</v>
@@ -3575,12 +3948,16 @@
       <c r="H16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018031','Patente de Invención Nacional','SISTEMA BASTIDOR PARA UN VEHÍCULO ELÉCTRICO DE TRANPORTE DE CARGA ','2024-12-26','Publicada sin pago','CARLOS MIGUEL MONTENEGRO PEREZ,Rosemberg Espinel Forero,JOHN FEDDY  TRAIANA VARGAS,fabio alirio  cueca,fabio zapata montenegro ','LIZBETH CALVO','B60P 1/00,B60P 1/64,B60P 3/00,B60P 9/00,B60L 50/50,B62D 31/00,B62K 5/01,B62K 7/04,B62J 43/20');</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5511335","NC2024/0018030")</f>
         <v>NC2024/0018030</v>
@@ -3606,12 +3983,16 @@
       <c r="H17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018030','Patente de Invención Nacional','SISTEMA DE FRENOS PARA VEHICULO ELECTRICO DE TRANSPORTE DE CARGA','2024-12-26','Publicada sin pago','Rosemberg ESPINEL FORERO,JOHN FEDDY  TRAIANA VARGAS,Carlos Montenegro,José Isaias Montaña Galán,DIEGO FERNANDO MOJICA,Henry Guerra Galvis,Claudio Bernardo Duque Calderón','LIZBETH CALVO','B60P 1/00,B60P 1/64,B60P 3/00,B60P 9/00,B60L 7/26,B60T 8/1761,B60T 13/58');</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5516604","NC2024/0018397")</f>
         <v>NC2024/0018397</v>
@@ -3637,12 +4018,16 @@
       <c r="H18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018397','Patente de Invención Nacional','DISPOSITIVO DE TELEMEDICINA Y PROCEDIMIENTO DE DIAGNOSTICO Y CLASIFICACION DE RIESGO','2024-12-31','Publicada sin pago','ELI JACOB GODOY RUIZ','EDWAR ANDRES ROMERO GONGORA','A61B 5/00,G06F 15/16,G06Q 50/00,H04M 11/00');</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5485257","NC2024/0016710")</f>
         <v>NC2024/0016710</v>
@@ -3668,12 +4053,16 @@
       <c r="H19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0016710','Patente de Invención Nacional','DISPOSITIVO DE BOMBEO PERPETUO PARA ACUAPONÍA','2024-12-04','Publicada sin pago','Julia Victoria Arredondo Botero,Edwin Alberto Giraldo Ramírez,Óscar Eduardo Molano Betancur,Juan Esteban García Granda,Leonardo Quiceno Marín,José Antonio González Ruiz,Iván Alberto Herrera Duque,Juan Camilo Martínez Molina','CARLOS FERNANDO TAMAYO LOPEZ','A01G 31/06,A01K 63/04,A01G 7/04');</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4810686","NC2023/0010375")</f>
         <v>NC2023/0010375</v>
@@ -3699,12 +4088,16 @@
       <c r="H20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0010375','Patente de Invención Nacional','“REACTOR FUNGIBLE PARA EL PROCESAMIENTO DE BATERÍAS”','2023-08-04','Publicada sin pago','Pedro Luis  Delvasto Angarita,Diego  Pérez Acevedo,Jhon Freddy  Palacios ,Diego Fernando  Hernández Pardo ','CARLOS REINALDO OLARTE GARCIA','H01M 6/52');</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4811965","NC2023/0010382")</f>
         <v>NC2023/0010382</v>
@@ -3730,12 +4123,16 @@
       <c r="H21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0010382','Patente de Invención Nacional','EMPAQUE EXHIBIDOR PARA BOTELLA','2023-08-04','Publicada sin pago','Cesar Augusto Bernal Gonzalez','CARLOS REINALDO OLARTE GARCIA','B65D 6/02,B65D 25/02,B65D 25/24');</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4806599","NC2023/0010306")</f>
         <v>NC2023/0010306</v>
@@ -3761,12 +4158,16 @@
       <c r="H22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0010306','Patente de Invención Nacional','MÁQUINA MODULAR PARA CONSTRUCCIÓN DE CIMENTACIONES','2023-08-02','Publicada sin pago','Giovanni  Gélvez Gélvez ,Cristian Giovanni  Mosquera Castillo','CARLOS REINALDO OLARTE GARCIA','E21B 7/02,E21B 15/00,E21B 15/04,E21D 20/00,E21B 3/02,E21B 19/00,E21B 19/06,E21B 19/16,E21B 7/12,E21B 33/064,B63B 35/44');</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5040935","NC2024/0001128")</f>
         <v>NC2024/0001128</v>
@@ -3792,12 +4193,16 @@
       <c r="H23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0001128','Patente de Invención Nacional','COMPOSICIÓN DE ETIPROL Y FLONICAMID Y MÉTODO DE PREPARACIÓN DE LA MISMA Y GRÁNULOS DISPERSABLES EN AGUA DE LA MISMA','2024-02-01','Publicada sin pago','Zhiqing LI,Jianwei WANG,Lanhua LIU,Peng SUN','JUAN CARLOS CUESTA QUINTERO','A01N 25/00,A01N 25/02,A01N 43/40,A01N 43/54,A01N 43/56,A01N 43/78,A01N 43/80,A01N 43/90,A01N 63/00');</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4805760","NC2023/0010262")</f>
         <v>NC2023/0010262</v>
@@ -3823,12 +4228,16 @@
       <c r="H24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0010262','Patente de Invención Nacional','INSERTO PLÁSTICO PARA VÁLVULAS O ACCESORIOS PLÁSTICOS','2023-08-01','Publicada sin pago','Santiago González Echeverry','María José Lamus Becerra','F16L 55/07,F16K 27/02');</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5470251","NC2024/0015955")</f>
         <v>NC2024/0015955</v>
@@ -3854,12 +4263,16 @@
       <c r="H25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0015955','Patente de Invención Nacional','MONITOREO DE FRECUENCIAS DE VUELO Y PAUSAS EN VUELO ESTACIONARIO DE COLIBRÍES A TRAVÉS DE TÉCNICAS DE VISIÓN POR COMPUTADOR.','2024-11-24','Publicada sin pago','Maria Ximena Bastidas Rodriguez,Ana Melisa Fernandes Fernandes,Juan Roncancio','Maria Ximena Bastidas Rodriguez','G06K 9/00,G06K 9/03,G06K 9/18,G06K 9/20,G06K 9/82');</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5516168","NC2024/0018338")</f>
         <v>NC2024/0018338</v>
@@ -3885,12 +4298,16 @@
       <c r="H26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018338','Patente de Invención Nacional','MOTOR SÍNCRONO ULTRADELGADO Y ULTRALIVIANO CON CONTROL DE VELOCIDAD AUTOMÁTICO Y ELECTROMECÁNICO','2024-12-30','Publicada sin pago','IVAN HERRERA MURGUEITIO','CAROLINA VERA MATIZ','H02K 17/00,H02K 17/02,H02K 19/00,H02K 19/02,H02K 21/00,H02K 41/025,H02K 41/03');</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5521239","NC2025/0000237")</f>
         <v>NC2025/0000237</v>
@@ -3916,12 +4333,16 @@
       <c r="H27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0000237','Patente de Invención Nacional','PROCESOS PARA LA FABRICACIÓN DE BRIQUETAS A PARTIR DE CÁSCARA DE COCO Y BRIQUETAS OBTENIDAS','2025-01-13','Publicada sin pago','ASTRID VANESSA ESPINEL OVIEDO ,PAOLA ANDREA   MEJÍA ALVAREZ,MARIA MARGARITA  PORTILLA GONZÁLEZ,FRANCISCO JAVIER  CAICEDO MESSA','MARIO ANDRES ORTEGA MENDOZA','C10L 5/06,A01G 24/25');</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4812084","NC2023/0010399")</f>
         <v>NC2023/0010399</v>
@@ -3947,12 +4368,16 @@
       <c r="H28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0010399','Patente de Invención Nacional','CONTENEDOR PLEGABLE','2023-08-08','Publicada sin pago','Cesar Augusto Bernal Gonzalez','CARLOS REINALDO OLARTE GARCIA','B65D 5/00');</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5474832","NC2024/0016099")</f>
         <v>NC2024/0016099</v>
@@ -3978,12 +4403,16 @@
       <c r="H29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I29" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0016099','Patente de Invención Nacional','DISPOSITIVO TIPO DENDRÓMETRO PARA MEDICIÓN DE TALLOS Y FRUTOS','2024-11-27','Publicada sin pago','ORIANA MICHELLE GOMEZ MUÑOZ,Brian Stiven Bulla Caro,Deivy Ricardo Enciso Rodríguez,Esteban Alexis Morillo Morales,Liliana Ríos Rojas,Marysol Cano Benitez,Gustavo Acosta Herrera,Mauricio Fernando Martínez','Diana Marcela  Bonilla Rojas','G01B 5/00,G01B 7/12,G01B 7/16,G01B 11/02,G01N 33/46');</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?3582296","NC2021/0008257")</f>
         <v>NC2021/0008257</v>
@@ -4009,12 +4438,16 @@
       <c r="H30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2021/0008257','Patente de Invención Nacional','SISTEMA DE ALMACENAMIENTO DE ENERGÍA PARA VEHÍCULOS DE DOS RUEDAS Y MÉTODO DE FABRICACIÓN DEL MISMO','2021-06-24','Publicada sin pago','Behlen Christian ,Martinovic Bernard','JESUS MARIA MENDEZ BERMUDEZ','B60L 50/64,H01M 50/202');</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4962659","NC2023/0016713")</f>
         <v>NC2023/0016713</v>
@@ -4040,12 +4473,16 @@
       <c r="H31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016713','Patente de Invención Nacional','GENERADOR DE FUERZA MOTRIZ POR GRAVEDAD','2023-12-01','Publicada sin pago','CARLOS YESID VARELA BERNAL','CARLOS YESID VARELA BERNAL','F03G 3/00,F03G 7/10,B60L 50/10');</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5486222","NC2024/0016757")</f>
         <v>NC2024/0016757</v>
@@ -4071,12 +4508,16 @@
       <c r="H32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0016757','Patente de Invención Nacional','PIEZA DE MANO PARA ACELERACIÓN DEL MOVIMIENTO DENTAL Y CONTROL DEL DOLOR DURANTE LOS TRATAMIENTOS DE ORTODONCIA','2024-12-05','Publicada sin pago','SERGIO ANDRÉS VELÁSQUEZ CUJAR,Angela Ines Dominguez Camacho','Angela Ines Dominguez Camacho','A61C 7/00,A61C 7/08,A61N 5/06,A61N 5/067');</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4833596","NC2023/0010983")</f>
         <v>NC2023/0010983</v>
@@ -4102,12 +4543,16 @@
       <c r="H33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0010983','Patente de Invención Nacional','SISTEMA Y PROCESO MODULAR DE SEPARACIÓN DE FLUIDOS Y CONVERSIÓN DE RESIDUOS A CARBÓN ACTIVO, COMBUSTIBLES LÍQUIDOS Y GASES COMBUSTIBLES POR ETAPA DUAL DE PIROLISIS, GASIFICACIÓN ACELERADA Y GENERACIÓN DE ENERGIA.','2023-08-23','Publicada sin pago','YUBAR ALBERTO  ARROYAVE RESTREPO','KAREN LORENA BONILLA BARRAGAN','B09B 3/00,C10L 5/00,F23G 7/00');</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5492709","NC2024/0016942")</f>
         <v>NC2024/0016942</v>
@@ -4133,12 +4578,16 @@
       <c r="H34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0016942','Patente de Invención Nacional','MECANISMO DE ENCOFRADO PARA LOSAS HORIZONTALES DE BAJA ALTURA CON TABLEROS DE SOPORTE ACOPLABLES','2024-12-10','Publicada sin pago','RIUSMAN JOSE  RODRIGUEZ MATUTIS ,JOSE DANIEL  RIVERA REYES','HUGO DANIEL   GONZALEZ HERNANDEZ','E04G 11/40,E04G 11/46,E04G 11/48,E04G 13/02,E04D 11/00,E04G 9/05,E04G 11/38,E04G 11/52,E04G 17/07');</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5533190","NC2025/0000548")</f>
         <v>NC2025/0000548</v>
@@ -4164,12 +4613,16 @@
       <c r="H35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0000548','Patente de Invención Nacional','MÉTODO Y SISTEMA PARA EL DISEÑO Y COSTEO DE SISTEMAS DE TRATAMIENTO DE AGUAS RESIDUALES DE ORIGEN INDUSTRIAL Y DOMÉSTICO','2025-01-20','Publicada sin pago','CARLOS EMIRO FLOREZ LOPEZ,Carlos Alberto Albor Bula','Gonzalo Andrés Carreño González','C02F 9/00,C02F 9/06,C02F 1/24,C02F 1/00');</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4825382","NC2023/0010706")</f>
         <v>NC2023/0010706</v>
@@ -4195,12 +4648,16 @@
       <c r="H36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0010706','Patente de Invención Nacional','TRANSMISIÓN TIPO CARDAN CON EJES DOBLES PARALELOS ENTRE SÍ PARA BICICLETA','2023-08-16','Publicada sin pago','VERNEY ANTONIO BLANDON TORRES','VERNEY ANTONIO BLANDON TORRES','B62M 6/35,B62M 6/75,B62M 11/12,B62M 13/00,B62M 17/00,B62M 25/00,B62K 23/00,B62J 45/00');</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5507913","NC2024/0017696")</f>
         <v>NC2024/0017696</v>
@@ -4226,12 +4683,16 @@
       <c r="H37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I37" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0017696','Patente de Invención Nacional','DISPOSITIVO DE SISTEMA MECÁNICO PARA BIODIGESTIÓN ANAERÓBICA','2024-12-21','Publicada sin pago','ROBERTO ANTONIO  CARDONA PEREZ ','JUAN CARLOS  SUAREZ DELGADILLO','C12M 1/02,C12M 1/107,C02F 3/28,C02F 11/04');</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4826551","NC2023/0010754")</f>
         <v>NC2023/0010754</v>
@@ -4257,12 +4718,16 @@
       <c r="H38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I38" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0010754','Patente de Invención Nacional','SISTEMA DE FLOTACION POR SATURACION DE GAS EN AGUA MEDIANTE AUTOMATIZACION DEL SISTEMA DE GENERACION DE MICROBURBUJA Y METODO ASOCIADO CON EL MISMO','2023-08-17','Publicada sin pago','WILLIAM  ARIZA FONTECHA,BRAYAN DARIO FORIGUA GONZALEZ,JORGE IVAN  ESLAVA GUZMAN,EMIGDIO JAVIER FUENTES VELASQUEZ,JULIAN DAVID CERON GONZALEZ,ALEX HUMBERTO OTALORA RIVERA','SANDRA MILENA RODRIGUEZ SARMIENTO','G05B 13/00,G05B 17/00');</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5334066","NC2024/0012169")</f>
         <v>NC2024/0012169</v>
@@ -4288,12 +4753,16 @@
       <c r="H39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0012169','Patente de Invención Nacional','DISPOSITIVO Y MÉTODO DE DISPENSACIÓN DE ELEMENTOS FERROMAGNÉTICOS MENORES','2024-09-06','Publicada sin pago','JUAN CARLOS  GARATE AGUIRRE,MARIA CRISTINA JARAMILLO GONZALES,ROLANDO JOSUÉ ANDRADE CALLE,MARCO BENITO REINOSO AVECILLAS,ANDRES EDUARDO CARDENAS SANCHEZ,LUIS EDUARDO ZAMBRANO HERAS','CARLOS REINALDO OLARTE GARCIA','B65B 35/30,B65B 35/56,G07F 11/00,G06F 3/0482,G06F 3/0484,H04N 5/247');</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4817802","NC2023/0011168")</f>
         <v>NC2023/0011168</v>
@@ -4319,12 +4788,16 @@
       <c r="H40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I40" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0011168','Patente de Invención Nacional','MÉTODO PARA PROCESAR PRODUCTOS DE CACAO CON SABOR, OLOR Y REOLOGÍA MEJORADA','2023-08-26','Publicada sin pago','HECTOR HUGO OLARTE NOREÑA,CLAUDIA MILENA  RODRIGUEZ LÓPEZ,MARIA JOSE CHICA MORALES,SERGIO LEONARDO FLOREZ GONZALEZ,Ana Gabriela Rojas Velasquez,IVAN CASTAÑEDA MONSALVE,FRANCISCO JAVIER GOMEZ BUITRAGO','MANUEL ANTONIO GUERRERO GAITAN ','A23G 1/00,A23G 1/52,A23G 1/56,A23G 3/36,A23G 9/32,A23L 5/40,A23L 27/20,A23L 27/29,A23L 33/105,A23G 1/04,A23L 25/10');</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5515878","NC2025/0001288")</f>
         <v>NC2025/0001288</v>
@@ -4350,12 +4823,16 @@
       <c r="H41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0001288','Patente de Invención Nacional','UN LIBRO CON PÁGINAS ILUSTRADAS','2025-02-04','Publicada sin pago','MUDr. MICHAL VIRAG, PhD.','CLEMENCIA DELGADO VILLEGAS','B42D 15/00,B42D 15/02,A47B 19/00,B42D 3/12,G09B 5/06,B42D 3/00');</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5346065","NC2024/0011861")</f>
         <v>NC2024/0011861</v>
@@ -4381,12 +4858,16 @@
       <c r="H42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I42" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0011861','Patente de Invención Nacional','PANELES EN CONCRETO ALIGERADOS IGNÍFUGOS, RESISTENTE A LA HUMEDAD Y DE ALTA RESISTENCIA MECÁNICA','2024-08-29','Publicada sin pago','CHRISTIAN CAMILO  MELO RINCÓN','CHRISTIAN CAMILO  MELO RINCÓN','C04B 24/08,C04B 24/12,C04B 103/30,C04B 28/04,C04B 38/00,C04B 40/00');</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5546091","NC2025/0000998")</f>
         <v>NC2025/0000998</v>
@@ -4412,12 +4893,16 @@
       <c r="H43" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0000998','Patente de Invención Nacional','METODO Y SISTEMA PARA INTERCOMUNICAR TODA LA INFORMACION DEL SERVICIO DE TRANSPORTE PUBLICO URBANO CON EL USUARIO','2025-01-29','Publicada sin pago','JOSE GUSTAVO GRISALES GARCIA ','JOSE GUSTAVO GRISALES GARCIA ','G06F 30/18,H04W 92/00,H04W 12/00,H04W 8/02');</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5295563","NC2024/0010506")</f>
         <v>NC2024/0010506</v>
@@ -4443,12 +4928,16 @@
       <c r="H44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I44" t="str">
+      <c r="I44" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0010506','Patente de Invención Nacional',' PROCEDIMIENTO PARA LA PRODUCCIÓN DE BIOHIDRÓGENO A PARTIR DE LA CODIGESTIÓN DE RESIDUO DE CORTE DE CAÑA DE AZÚCAR Y VINAZAS','2024-07-31','Publicada sin pago','HOWARD DIEGO  RAMÍREZ MALULE,ANDRÉS FERNANDO                       BARRERA ARISTIZÁBAL ,DAVID ANDRÉS     GÓMEZ RÍOS    ','FELIPE EDUARDO  FIGUEROA CARDOZO','C12P 3/00,C12P 19/02,C12P 19/14');</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5085919","NC2024/0002590")</f>
         <v>NC2024/0002590</v>
@@ -4474,12 +4963,16 @@
       <c r="H45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0002590','Patente de Invención Nacional','SISTEMA DE GENERACIÓN DE HIDRÓGENO VERDE A PARTIR DE UNA CELDA ELECTROLÍTICA DE UNA SOLA CÁMARA EN SECO','2024-02-29','Publicada sin pago','Roberto Calvo','JUAN CARLOS CUESTA QUINTERO','B01D 53/26,C25B 1/04,C25B 9/00,C25B 9/19,C25B 15/027,C25B 15/08,C25B 1/02,C25B 1/044,C25B 15/021,C25B 15/029');</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4756251","NC2023/0008300")</f>
         <v>NC2023/0008300</v>
@@ -4505,12 +4998,16 @@
       <c r="H46" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0008300','Patente de Invención Nacional','MATERIAL RER','2023-06-25','Publicada sin pago','William Alberto Soto','William Esteban Soto Posada','E04C 1/00,E04C 2/00,C04B 18/04');</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4841262","NC2023/0011402")</f>
         <v>NC2023/0011402</v>
@@ -4536,12 +5033,16 @@
       <c r="H47" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I47" t="str">
+      <c r="I47" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0011402','Patente de Invención Nacional','DISPOSITIVO PARA LA OBTENCIÓN DE GRÁNULOS REDONDEADOS DE NACL','2023-08-29','Publicada sin pago','SANDRO BAEZ PIMIENTO,MARÍA ELENA  HERNÁNDEZ ROJAS ,SANDRA LUZ CASTAÑÓN ALONSO','Natalia Lucia Velez Taborda','B01D 1/18,B01J 2/04,B22D 29/00,C01D 3/22,C30B 29/12,C30B 29/60');</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5581862","NC2025/0002024")</f>
         <v>NC2025/0002024</v>
@@ -4567,12 +5068,16 @@
       <c r="H48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I48" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0002024','Patente de Invención Nacional','VÁLVULA DE SENTADO Y SELLO THOR','2025-02-24','Publicada sin pago','Rolando  Olarte Duran','Rolando  Olarte Duran','A01J 9/06,B21K 1/24,B23C 3/05');</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4862408","NC2023/0012144")</f>
         <v>NC2023/0012144</v>
@@ -4598,12 +5103,16 @@
       <c r="H49" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0012144','Patente de Invención Nacional','MÉTODOS DE PREPARACIÓN DE GLUFOSINATO','2023-09-14','Publicada sin pago','Chengjun WU,Nan LI,Jianjie XU,Xianzhong TANG,Chunhui MAO,Wenjie TAN','HELENA CAMARGO WILLIAMSON','C07B 55/00,C07B 57/00,C07C 227/36,C07C 229/08,C07C 229/36,C07D 453/04,C07F 9/30,C07F 9/32');</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5564063","NC2025/0001484")</f>
         <v>NC2025/0001484</v>
@@ -4629,12 +5138,16 @@
       <c r="H50" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I50" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0001484','Patente de Invención Nacional','DISPOSITIVO Y METODO PARA EL SUMINISTRO CONTROLADO DE OXI-HIDROGENO COMBINADO CON COMBUSTIBLE PARA MAQUINAS TERMICAS','2025-02-12','Publicada sin pago','MIGUEL SANTIAGO ARANGO YOVANY ,FRANCISCO JAVIER  GONZÁLES BARRETO','GUILLERMO ANDRES NAVARRO ROMERO','G01R 31/00,C25B 9/17,F02M 21/02,F02M 25/06,F02C 3/00,F02C 3/14');</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5120921","NC2024/0003526")</f>
         <v>NC2024/0003526</v>
@@ -4660,12 +5173,16 @@
       <c r="H51" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0003526','Patente de Invención Nacional','MÁQUINA PARA HACER AREPAS Y TORTILLAS MODELO C – 17','2024-03-21','Publicada sin pago','DANIEL MAURICIO  LOVERA PÉREZ','DANIELA NATALIA CORTÉS MURILLO','A21C 15/04,A21C 1/00,A21C 3/00');</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5118202","NC2024/0003382")</f>
         <v>NC2024/0003382</v>
@@ -4691,12 +5208,16 @@
       <c r="H52" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0003382','Patente de Invención Nacional','SOPORTE PARA DISPOSITIVOS ELECTRONICOS ADAPTADO AL CUERPO DEL USUARIO','2024-03-19','Publicada sin pago','Juan Carlos Montes Galarza','Juan Carlos Montes Galarza','A47B 23/04,A47B 97/04,A45C 11/00,F16M 11/10,F16M 11/38,F16M 13/00');</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4208540","NC2022/0008115")</f>
         <v>NC2022/0008115</v>
@@ -4722,12 +5243,16 @@
       <c r="H53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I53" t="str">
+      <c r="I53" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2022/0008115','Patente de Invención Nacional','MÉTODO PARA REMOVER CADMIO DE LICOR DE CACAO','2022-06-08','Publicada sin pago','Juan Carlos  Cruz Jimenez ,Ana Lucía  CAMPAÑA PERILLA ,María Camila  CLAVIJO PÉREZ,Johann Faccelo OSMA CRUZ,HECTOR HUGO OLARTE NOREÑA,CLAUDIA MILENA  RODRIGUEZ LÓPEZ,JUAN DIEGO BORRERO JIMENEZ,MABEL JULIANA NOGUERA CONTRERAS,JULIETTE FERNANDA  BERMUDEZ CAMELO,MARIA JOSE CHICA MORALES,NATALIA LÓPEZ BARBOSA,PAOLA RUIZ PUENTES,SERGIO LEONARDO FLOREZ GONZALEZ','CAMILO JAVIER GOMEZ RIVEROS','B01D 15/00,B01J 20/32,B01J 45/00,A23G 1/00,A23L 5/20');</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4875418","NC2023/0012591")</f>
         <v>NC2023/0012591</v>
@@ -4753,12 +5278,16 @@
       <c r="H54" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I54" t="str">
+      <c r="I54" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0012591','Patente de Invención Nacional','CHAQUETA ELECTROLUMINISCENTE PARA VÍAS','2023-09-24','Publicada sin pago','Luis David Garcia Giraldo','Luis David Garcia Giraldo','A41D 1/02,H05B 33/00,A41D 3/00,A41D 13/01');</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5614717","NC2025/0003476")</f>
         <v>NC2025/0003476</v>
@@ -4784,12 +5313,16 @@
       <c r="H55" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I55" t="str">
+      <c r="I55" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0003476','Patente de Invención Nacional','DISPOSICIÓN INTRODUCIDA EN UNA PLATAFORMA ELEVADORA DE VEHÍCULOS','2025-03-17','Publicada sin pago','GABRIEL STUMPF','CAROLINA VERA MATIZ','B60S 9/215,B60S 1/20,B60S 9/00');</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5614638","NC2025/0003561")</f>
         <v>NC2025/0003561</v>
@@ -4815,12 +5348,16 @@
       <c r="H56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I56" t="str">
+      <c r="I56" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0003561','Patente de Invención Nacional','SALSA PARA HELADOS QUE MANTIENE UNA TEXTURA SUAVE Y UNIFORME A BAJAS TEMPERATURAS','2025-03-18','Publicada sin pago','Angelo Lucas,Alejandra María Beltrán Uribe,Tatiana Andrea Becerra,Marcela Rodriguez Bernal','MAURICIO JARAMILLO CAMPUZANO','A23K 50/48,A23L 29/20,A23L 33/125,A23L 5/43');</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5391150","NC2024/0013380")</f>
         <v>NC2024/0013380</v>
@@ -4846,12 +5383,16 @@
       <c r="H57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I57" t="str">
+      <c r="I57" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0013380','Patente de Invención Nacional','SENSOR Y MÉTODO PARA LA DETECCIÓN DE BIOMOLÉCULAS ASOCIADAS CON PATÓGENOS','2024-09-30','Publicada sin pago','ANDRÉS JARAMILLO BOTERO,CARLOS ENRIQUE  NAVARRO CHICA','FELIPE EDUARDO  FIGUEROA CARDOZO','G01N 33/569,G01N 33/68,G01N 33/53,G01N 33/00');</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5391156","NC2024/0013379")</f>
         <v>NC2024/0013379</v>
@@ -4877,12 +5418,16 @@
       <c r="H58" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I58" t="str">
+      <c r="I58" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0013379','Patente de Invención Nacional','SENSOR PARA LA DETECCIÓN DE ÁCIDO SALICÍLICO EN PLANTAS','2024-09-30','Publicada sin pago','ANDRÉS JARAMILLO BOTERO,Drochss Valencia ,Sammy Perdomo','FELIPE EDUARDO  FIGUEROA CARDOZO','G01N 33/00,G01N 17/00,G01N 33/68,G01N 27/00');</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5343840","NC2024/0011712")</f>
         <v>NC2024/0011712</v>
@@ -4908,12 +5453,16 @@
       <c r="H59" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I59" t="str">
+      <c r="I59" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0011712','Patente de Invención Nacional','MÉTODO DE OBTENCIÓN DE NANOPOLIMEROS FOTOSENSIBLES PARA ENCAPSULACIÓN DE MOLÉCULAS HIDROFÍLICAS O HIDROFÓBICAS','2024-08-28','Publicada sin pago','LINA MARCELA HOYOS PALACIO','FELIPE EDUARDO  FIGUEROA CARDOZO','A01H 5/00,A61K 9/00,A61K 9/127,A61K 38/00,A61K 39/00,A61K 39/395');</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5377374","NC2024/0013544")</f>
         <v>NC2024/0013544</v>
@@ -4939,12 +5488,16 @@
       <c r="H60" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I60" t="str">
+      <c r="I60" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0013544','Patente de Invención Nacional','APARATO PORTÁTIL PARA MEDICIÓN DE LA CALIDAD DEL AIRE','2024-10-04','Publicada sin pago','Juan Carlos Cobos Torres,Cristian Fernando  Morocho Quishpi ','CARLOS REINALDO OLARTE GARCIA','F24F 110/22,F24F 110/52');</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5511282","NC2024/0018012")</f>
         <v>NC2024/0018012</v>
@@ -4970,12 +5523,16 @@
       <c r="H61" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I61" t="str">
+      <c r="I61" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018012','Patente de Invención Nacional','SISTEMA DE TREN MOTOR PARA VEHICULO ELECTRICO DE TRANSPORTE DE CARGA','2024-12-26','Publicada sin pago','Rosemberg ESPINEL FORERO','LIZBETH CALVO','B60P 1/00,B60P 1/64,B60P 3/00,B60P 9/00,B60L 7/26,B60T 8/1761');</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5511290","NC2024/0018021")</f>
         <v>NC2024/0018021</v>
@@ -5001,12 +5558,16 @@
       <c r="H62" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I62" t="str">
+      <c r="I62" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018021','Patente de Invención Nacional','SISTEMA DE DIRECCION PARA VEHICULO ELECTRICO DE TRANSPORTE DE CARGA','2024-12-26','Publicada sin pago','CARLOS MIGUEL MONTENEGRO PEREZ,Rosemberg Espinel Forero,JOHN FEDDY  TRAIANA VARGAS,JOSE ISAIAS MONTAÑA GALAN,ROBERTO IREGUI,DIEGO FERNANDO MOJICA','LIZBETH CALVO','B60P 1/00,B60P 1/64,B60P 3/00,B60P 9/00,B62D 1/04,B62D 1/183,G01B 5/00,G01B 5/08,G01M 17/06');</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5391803","NC2024/0013495")</f>
         <v>NC2024/0013495</v>
@@ -5032,12 +5593,16 @@
       <c r="H63" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I63" t="str">
+      <c r="I63" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="J63" s="7"/>
+      <c r="K63" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0013495','Patente de Invención Nacional','TABLETA MULTIACTIVOS EN EL TRATAMIENTO Y CONTROL DE DOLOR SEVERO CRÓNICO Y MÉTODO DE PREPARACIÓN','2024-10-03','Publicada sin pago','Cecilia Jannette MUÑOZ MARTINEZ,Marco Antonio ESPINOSA OLIVARES,Paola Yazmín OLLERVIDES RUBIO,José Guillermo SANDER PADILLA,Jorge Alejandro GONZÁLEZ CANUDAS','ALICIA LLOREDA RICAURTE','A61K 31/415,A61K 31/635,A61P 29/00');</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5392023","NC2024/0013497")</f>
         <v>NC2024/0013497</v>
@@ -5063,12 +5628,16 @@
       <c r="H64" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I64" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0013497','Patente de Invención Nacional','COMBINACIÓN DE CELECOXIB - ACETAMINOFÉN DE ESTABILIDAD MEJORADA Y PROCEDIMIENTO PARA SU PREPARACIÓN','2024-10-03','Publicada sin pago','Cecilia Jannette MUÑOZ MARTINEZ,Marco Antonio ESPINOSA OLIVARES,Paola Yazmín OLLERVIDES RUBIO,José Guillermo SANDER PADILLA,Jorge Alejandro GONZÁLEZ CANUDAS','ALICIA LLOREDA RICAURTE','A61K 9/20,A61K 9/16,A61K 9/00,A61K 31/165');</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5599116","NC2025/0002992")</f>
         <v>NC2025/0002992</v>
@@ -5094,12 +5663,16 @@
       <c r="H65" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I65" t="str">
+      <c r="I65" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0002992','Patente de Invención Nacional','UNIDAD HIDRÁULICA MÓVIL PARA EXTRACCIÓN, INSERCIÓN Y DESPLAZAMIENTO DE TUBERÍAS Y/O HERRAMIENTAS EN POZOS DE PETRÓLEO Y SU MÉTODO DE ENSAMBLAJE PARA LA INTERVENCIÓN DE UN POZO','2025-03-07','Publicada sin pago','IVAN JOYA ALVAREZ','GUILLERMO ANDRES NAVARRO ROMERO','E21B 19/084,E21B 19/02,B66D 1/44,B66D 1/58,E21B 19/08');</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5412698","NC2024/0013829")</f>
         <v>NC2024/0013829</v>
@@ -5125,12 +5698,16 @@
       <c r="H66" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I66" t="str">
+      <c r="I66" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0013829','Patente de Invención Nacional','SISTEMA DE CONFIGURACIÓN REMOTA PARA TELEREHABILITACIÓN','2024-10-15','Publicada sin pago','ROBERTO FERRO ESCOBAR,LILIA EDITH   APARICIO PICO,PAULO CESAR  CORONADO SÁNCHEZ','JUAN CARLOS SERNA ROJAS','H04L 12/403,H04W 72/12,H04W 84/18,G01S 1/02,G01S 1/20,G01S 5/02,G01S 5/10');</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5562215","NC2025/0001448")</f>
         <v>NC2025/0001448</v>
@@ -5156,12 +5733,16 @@
       <c r="H67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I67" t="str">
-        <f t="shared" ref="I67:I130" si="1">"INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('"&amp;TRIM(CLEAN(A67))&amp;"','"&amp;CLEAN(B67)&amp;"','"&amp;CLEAN(C67)&amp;"','"&amp;TEXT(D67,"yyyy-MM-dd")&amp;"','"&amp;CLEAN(E67)&amp;"','"&amp;CLEAN(F67)&amp;"','"&amp;CLEAN(G67)&amp;"','"&amp;TRIM(CLEAN(H67))&amp;"');"</f>
+      <c r="I67" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K130" si="1">"INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('"&amp;TRIM(CLEAN(A67))&amp;"','"&amp;CLEAN(B67)&amp;"','"&amp;CLEAN(C67)&amp;"','"&amp;TEXT(D67,"yyyy-MM-dd")&amp;"','"&amp;CLEAN(E67)&amp;"','"&amp;CLEAN(F67)&amp;"','"&amp;CLEAN(G67)&amp;"','"&amp;TRIM(CLEAN(H67))&amp;"');"</f>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0001448','Patente de Invención Nacional','COMPUESTO LAMINADO PARA LA CONDUCCIÓN DE AGUAS','2025-02-11','Publicada sin pago','JUAN PABLO ACEVEDO SUAREZ','RODRIGUEZ VARELA PEDRO HORACIO','E02D 17/20,E02D 29/02,E02D 31/02');</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5505873","NC2024/0017615")</f>
         <v>NC2024/0017615</v>
@@ -5187,12 +5768,16 @@
       <c r="H68" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I68" t="str">
+      <c r="I68" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0017615','Patente de Invención Nacional','DISPOSITIVO PORTÁTIL Y MODULAR DESTINADO AL APRENDIZAJE DE LOS FUNDAMENTOS Y LA LÓGICA MATEMÁTICA DE LA MÚSICA','2024-12-20','Publicada sin pago','GUSTAVO ADOLFO  TORRES DUQUE','LUIS ANGEL MADRID BERROTERÁN','G09B 15/00,G09B 15/02,G09B 15/04,G10G 1/04,G10H 1/00,G10H 1/32');</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4902034","NC2023/0013493")</f>
         <v>NC2023/0013493</v>
@@ -5218,12 +5803,16 @@
       <c r="H69" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I69" t="str">
+      <c r="I69" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0013493','Patente de Invención Nacional','TOSTADOR Y FILTRADOR DE SUSTANCIAS EN GRANOS','2023-10-12','Publicada sin pago','Gerson Freive Restrepo','Gerson Freive Restrepo','A23N 12/00,A47J 31/00');</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5614657","NC2025/0003474")</f>
         <v>NC2025/0003474</v>
@@ -5249,12 +5838,16 @@
       <c r="H70" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I70" t="str">
+      <c r="I70" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="J70" s="7"/>
+      <c r="K70" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0003474','Patente de Invención Nacional','AUTOMATIZACIÓN PARA LA TRANSFORMACIÓN DE LA POSICIÓN DE ESCALÓN A PLATAFORMA O VICEVERSA EN ELEVADOR TIPO ESCALERA-PLATAFORMA','2025-03-17','Publicada sin pago','GABRIEL STUMPF','CAROLINA VERA MATIZ','B41B 11/30,B41B 11/34,B41B 11/92,B65F 3/08,B65F 3/18');</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4888453","NC2023/0013381")</f>
         <v>NC2023/0013381</v>
@@ -5280,12 +5873,16 @@
       <c r="H71" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I71" t="str">
+      <c r="I71" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0013381','Patente de Invención Nacional','SISTEMA ELECTRÓNICO PARA LA IDENTIFICACIÓN DE LA FRECUENCIA DE CAMBIOS DE POSICIÓN Y PREVENCIÓN DE CAÍDAS','2023-10-09','Publicada sin pago','PEDRO ANTONIO AYA PARRA,OLGA LUCIA CORTES FERREIRA,JEFFERSON STEVEN SARMIENTO ROJAS','XIMENA BETANCOURT DE CASTRO','G08B 1/02,G08B 25/10,A44C 5/00,A61B 5/00,A61B 5/021,A61B 5/11,G08B 21/02,G08B 21/04');</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5485081","NC2024/0016702")</f>
         <v>NC2024/0016702</v>
@@ -5311,12 +5908,16 @@
       <c r="H72" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I72" t="str">
+      <c r="I72" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0016702','Patente de Invención Nacional','COMPOSICIÓN ANTIMICROBIANA','2024-12-04','Publicada sin pago','Denisse Adriana  Oñate Pérez,Rita Esther   García Pasiminio,Guillermo Andrés   Viecco Castillo','JUAN PABLO CADENA SARMIENTO','A01N 25/04,A01N 31/02,A01N 37/12,A61K 31/00,A61L 2/18,A01P 1/00,A23L 5/20');</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4898169","NC2023/0013411")</f>
         <v>NC2023/0013411</v>
@@ -5342,12 +5943,16 @@
       <c r="H73" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I73" t="str">
+      <c r="I73" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0013411','Patente de Invención Nacional','SISTEMA DE ENTREGA DE POLVO EXCIPIENTE','2023-10-10','Publicada sin pago','Michael GULYAS,Dean HARRIS','MARGARITA CASTELLANOS ABONDANO','C09D 129/04,A61K 9/28,A61K 9/32,A61K 9/34,A61K 9/36,A61K 9/42,A61K 47/24,A61K 47/32,C08L 5/14,C08L 91/00');</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5511173","NC2024/0017988")</f>
         <v>NC2024/0017988</v>
@@ -5373,12 +5978,16 @@
       <c r="H74" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I74" t="str">
+      <c r="I74" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="K74" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0017988','Patente de Invención Nacional','BIOFILTRO MODULAR DE FLUJO MIXTO PARA TRATAMIENTO DE AGUAS RESIDUALES CON MATERIAL VEGETAL DE DESHECHOS AGROINDUSTRIALES COMO LECHO FILTRANTE','2024-12-26','Publicada sin pago','CINTYA KATHERINE OJEDA RIANOS,JORGE ANDRÉS PEREZ GAMBOA','LIZBETH CALVO','C02F 3/00,C02F 9/00,C02F 3/26,C02F 3/34');</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5624521","NC2025/0003809")</f>
         <v>NC2025/0003809</v>
@@ -5404,12 +6013,16 @@
       <c r="H75" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I75" t="str">
+      <c r="I75" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0003809','Patente de Invención Nacional','PROCESO DE FABRICACIÓN DE UN EMPAQUE ANULAR PARA CAJA DE EMPAQUETADURA EN BOMBAS RECIPROCANTES Y EMPAQUE PARA CAJA DE EMPAQUETADURA EN BOMBAS RECIPROCANTES','2025-03-25','Publicada sin pago','JAIME EDUARDO CAICEDO VARGAS','DAVID JESUS MENDEZ VILLAMIZAR','B29C 41/36,B29C 44/16,B29C 49/52');</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5417562","NC2024/0014231")</f>
         <v>NC2024/0014231</v>
@@ -5435,12 +6048,16 @@
       <c r="H76" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0014231','Patente de Invención Nacional','MÉTODO DE MONITOREO Y ANÁLISIS DE IMÁGENES BIOMÉDICAS','2024-10-18','Publicada sin pago','Orlando  Álvarez Llamoza,Carlos Armando  Echeverría Avendaño,Kay Andrés  Tucci Kellerer','CARLOS REINALDO OLARTE GARCIA','A61B 1/00,A61B 3/10,A61B 5/00,A61B 5/02,A61B 5/11,A61B 10/00,A61B 17/00,A61B 17/70');</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5648740","NC2025/0004578")</f>
         <v>NC2025/0004578</v>
@@ -5466,12 +6083,16 @@
       <c r="H77" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I77" t="str">
+      <c r="I77" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0004578','Patente de Invención Nacional','DISPOSITIVO DESMONTABLE PARA FACILITAR LARINGOSCOPIAS EN PACIENTES EDÉNTULOS CON PROTECCIÓN PARA REALIZAR PALANCA SOBRE LA ENCÍA','2025-04-09','Publicada sin pago','JUAN ENRIQUE  ARANGO CADAVID','ANDRES MARQUEZ ACOSTA','A61B 17/94,A61B 17/28,A61B 17/34,A61B 90/60,A61B 50/00,A61B 90/16');</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="198" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5159914","NC2024/0004838")</f>
         <v>NC2024/0004838</v>
@@ -5497,12 +6118,16 @@
       <c r="H78" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I78" t="str">
+      <c r="I78" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="J78" s="7"/>
+      <c r="K78" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0004838','Patente de Invención Nacional','MÉTODOS PARA MEJORAR LA ADSORCIÓN DE CONJUGADOS DE POLISACÁRIDO-PROTEÍNA Y FORMULACIÓN DE VACUNA MULTIVALENTE OBTENIDA DE LOS MISMOS','2024-04-17','Publicada sin pago','Rajeev Mhalasakant DHERE,Swapan Kumar JANA,Cyrus Soli POONAWALLA ,Shital Shantilal JAIN ,Amol Dattatraya MAHAJAN ,Gourab Shankar  PAUL ,HItesh Kumar MALVIYA ,Chetan Vilas Joshi,Manish Mahesh GAUTAM ,Prathamesh Prakash KALE ,Jagdish Prasad GAIROLA SUNIL ,Asha Dinesh MALLYA ,Dipen Jagdishbhai SONI ,Sushil Vardhaman PATNI ,Vinay Vijay GAVADE ','CAROLINA MERCEDES DAZA MONTALVO','A61K 39/00,C08B 37/00,C12N 1/06,C12P 19/04');</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5303232","NC2024/0010645")</f>
         <v>NC2024/0010645</v>
@@ -5528,12 +6153,16 @@
       <c r="H79" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I79" t="str">
+      <c r="I79" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="J79" s="7"/>
+      <c r="K79" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0010645','Patente de Invención Nacional','SISTEMA DE PAGO PARA PERMITIR EL PAGO DIVIDIDO Y MÉTODO PARA REALIZAR EL PAGO DIVIDIDO DEL MISMO','2024-08-02','Publicada sin pago','Hyung Woo KIM','LUZ HELENA ADARVE GOMEZ','G06Q 20/00,G06Q 20/04');</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4921511","NC2023/0014630")</f>
         <v>NC2023/0014630</v>
@@ -5559,12 +6188,16 @@
       <c r="H80" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I80" t="str">
+      <c r="I80" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="J80" s="7"/>
+      <c r="K80" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0014630','Patente de Invención Nacional','PROCESO DE INYECCIÓN DE AIRE Y AGUA ALTERNADA POR UN MISMO POZO INYECTOR EN YACIMIENTOS PROFUNDOS DE CRUDO EXTRA-PESADO CON GAS EN SOLUCIÓN','2023-10-27','Publicada sin pago','CARLOS EDUARDO NARANJO SUAREZ,EDWIN RODRIGUEZ PAREDES,JUAN CARLOS COMAS GOMEZ,MARTA LILIANA TRUJILLO PORTILLO,NICOLÁS CAICEDO HERNÁNDEZ,HELMUT  SALAZAR BARRERO,Diego Alejandro CARDENAS PATIÑO,Freddy PORTILLO SERRUDO,Jose Walter Vanegas Prada,ANDRES FELIPE TRUJILLO SANCHEZ,CHRISTIAN LEANDRO LEIVA HERRERA,DARIO ALEXIS RUEDA GARCIA','LUZ MARA HERRERA HERRERA','E21B 43/00,E21B 43/24,E21B 43/243,E21B 43/16');</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4910698","NC2023/0013931")</f>
         <v>NC2023/0013931</v>
@@ -5590,12 +6223,16 @@
       <c r="H81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I81" t="str">
+      <c r="I81" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0013931','Patente de Invención Nacional','REACTOR FUNGIBLE PARA EL PROCESAMIENTO DE BATERÍAS','2023-10-20','Publicada sin pago','Pedro Luis  Delvasto Angarita,Diego  Pérez Acevedo,Jhon Freddy  Palacios ,Diego Fernando  Hernández Pardo ','CARLOS REINALDO OLARTE GARCIA','H01M 6/52');</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5418751","NC2024/0014183")</f>
         <v>NC2024/0014183</v>
@@ -5621,12 +6258,16 @@
       <c r="H82" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I82" t="str">
+      <c r="I82" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="J82" s="7"/>
+      <c r="K82" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0014183','Patente de Invención Nacional','DISPOSITIVO PARA SEPARAR CABEZAS DE PESCADO EN BLOQUES CONGELADOS, A TRAVÉS DEL USO DE MARTILLOS TIPO COMBA','2024-10-28','Publicada sin pago','Mario Ricardo  Arbulú Saavedra,OSCAR EDUARDO CHAVARRO ARIAS,David  Saavedra Mora','OSCAR EDUARDO CHAVARRO ARIAS','A22C 25/04,A22C 25/08,A22C 25/14');</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5511300","NC2024/0018017")</f>
         <v>NC2024/0018017</v>
@@ -5652,12 +6293,16 @@
       <c r="H83" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I83" t="str">
+      <c r="I83" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="J83" s="7"/>
+      <c r="K83" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018017','Patente de Invención Nacional','SISTEMA DE SUSPENSION ANTERIOR PARA UN VEHÍCULO ELECTRICO DE TRANSPORTE DE CARGA','2024-12-26','Publicada sin pago','Rosemberg ESPINEL FORERO,JOHN FEDDY  TRAIANA VARGAS,Carlos Montenegro,ROBERTO IREGUI,Andrés Felipe Ramírez Moreno','LIZBETH CALVO','B60G 5/00,B60G 21/00,B60G 11/23');</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4915459","NC2023/0014164")</f>
         <v>NC2023/0014164</v>
@@ -5683,12 +6328,16 @@
       <c r="H84" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I84" t="str">
+      <c r="I84" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="J84" s="7"/>
+      <c r="K84" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0014164','Patente de Invención Nacional','VOLANTE MULTIPLICADOR DE TORQUE','2023-10-23','Publicada sin pago','TEODICELO GOMEZ PUENTES','TEODICELO GOMEZ PUENTES','F03G 3/00,F03G 3/06,F03G 7/08');</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4929034","NC2023/0015148")</f>
         <v>NC2023/0015148</v>
@@ -5714,12 +6363,16 @@
       <c r="H85" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I85" t="str">
+      <c r="I85" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="J85" s="7"/>
+      <c r="K85" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0015148','Patente de Invención Nacional','METODO PARA LA PRODUCCION DE OXIDO DE GRAFENO REDUCIDO (RGO) DE ALTA CALIDAD','2023-11-07','Publicada sin pago','LINA MARCELA HOYOS PALACIO,AURA SOFIA MERLANO MANOTAS','JULIAN  ESCUDERO CORREA','C09K 8/03,B82Y 30/00,B82Y 40/00,H01M 4/133,C01B 32/184,C01B 32/19,B01D 1/18,C09K 3/00,B01J 19/10');</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?3730224","NC2021/0013220")</f>
         <v>NC2021/0013220</v>
@@ -5745,12 +6398,16 @@
       <c r="H86" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I86" t="str">
+      <c r="I86" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="J86" s="7"/>
+      <c r="K86" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2021/0013220','Patente de Invención Nacional','MÉTODO PARA LA DETECCIÓN Y CUANTIFICACIÓN DE BACTERIAS OXIDADORAS DE SULFURO MEDIANTE GEN MARCADOR ESPECIFICO','2021-09-30','Publicada sin pago','Bladimiro RINCÓN OROZCO,Jhorman Alexis Niño Gomez,Ronald Jaimes Prada,SARA MARCELA URIBE OCHOA','LUZ MARA HERRERA HERRERA','G01N 33/00');</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4930692","NC2023/0015150")</f>
         <v>NC2023/0015150</v>
@@ -5776,12 +6433,16 @@
       <c r="H87" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I87" t="str">
+      <c r="I87" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="J87" s="7"/>
+      <c r="K87" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0015150','Patente de Invención Nacional','SISTEMA PARA EL MONITOREO DEL TRÁNSITO VEHICULAR, EL CONTROL Y EL  AUMENTO DE LA SEGURIDAD DE LOS ACTORES VIALES.','2023-11-08','Publicada sin pago','ISAIAS  LANS VARGAS,JUAN CARLOS  LONDOÑO TASCON,DIANA MARCELA  TRIANA MALDONADO,MAURICIO ANDRES VILLA AMAYA,MARYI ALEJANDRA CARVAJAL QUINTERO,LUIS FELIPE SALAS GUERRERO,JUAN PABLO  ACERO BAENA,BAYRON HERNANDEZ TOUS','JUAN CARLOS TORRES IBARRA','G08G 1/00');</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4930255","NC2023/0015157")</f>
         <v>NC2023/0015157</v>
@@ -5807,12 +6468,16 @@
       <c r="H88" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I88" t="str">
+      <c r="I88" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="J88" s="7"/>
+      <c r="K88" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0015157','Patente de Invención Nacional','FILTRO DE MATERIAL PARTICULADO','2023-11-08','Publicada sin pago','MARIA CLARA RESTREPO RESTREPO,MARLON ANDRÉS OSORIO DELGADO,Melissa Paola Cortes Gomez,Cristina Isabel  Castro Herazo ,Sergio Andres  Saldarriaga Suarez','CARLOS REINALDO OLARTE GARCIA','B03C 3/30,B03C 3/64,A62B 23/02,B32B 5/26,A41D 13/11,A41D 27/00,A41D 31/02,A41D 31/04');</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4932524","NC2023/0015103")</f>
         <v>NC2023/0015103</v>
@@ -5838,12 +6503,16 @@
       <c r="H89" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I89" t="str">
+      <c r="I89" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="J89" s="7"/>
+      <c r="K89" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0015103','Patente de Invención Nacional','MÉTODO PARA MONITOREO DE CUERPOS DE AGUA MEDIANTE CAPTACIÓN DE MUESTRAS CON DRONES PROGRAMABLES Y TELEDETECCIÓN MULTIESPECTRAL','2023-11-08','Publicada sin pago','JOSE ALEJANDRO OTERO NORIEGA,JULIO GONZALEZ BASTARDO,Alejandro Peinado Borelly,maiker rojas castro,Alberto Mario potes coronado,ecler david reyes calderon','JOSE ALEJANDRO OTERO NORIEGA','B64C 39/02,B64D 47/08,G01N 1/04,G01N 1/12,B64D 1/22,B64D 7/00,B64D 47/00,B65D 25/00,B65D 25/40,B65D 41/04,B65D 53/02,B65D 85/00');</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5542018","NC2025/0000797")</f>
         <v>NC2025/0000797</v>
@@ -5869,12 +6538,16 @@
       <c r="H90" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I90" t="str">
+      <c r="I90" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="J90" s="7"/>
+      <c r="K90" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0000797','Patente de Invención Nacional','APARATO DIGESTOR ELECTRO MECANICO Y PROCEDIMIENTO QUIMICO PARA DISOLVER CADÁVERES DE ANIMALES Y HUMANOS POR METODO DE HIDROLISIS ALCALINA DE BAJA TEMPERATURA.','2025-03-05','Publicada sin pago','YAMID LEONARDO MAZO BONILLA','YAMID LEONARDO MAZO BONILLA','G21F 9/28,G21F 9/32');</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4940431","NC2023/0015283")</f>
         <v>NC2023/0015283</v>
@@ -5900,12 +6573,16 @@
       <c r="H91" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I91" t="str">
+      <c r="I91" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="J91" s="7"/>
+      <c r="K91" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0015283','Patente de Invención Nacional','PROCESO MEJORADO DE EXTRACCIÓN Y PURIFICACIÓN DE CANNABINOIDES UTILIZANDO EXTRACCIÓN A CONTRACORRIENTE CON SOLVENTES BIODERIVADOS Y DESTILACIÓN REACTIVA SIMULTÁNEA PARA LA FABRICACIÓN DE INGREDIENTES FITOFARMACÉUTICOS DE CANNABIS','2023-11-14','Publicada sin pago','Miguel Augusto Santaella Serrano','JUAN PABLO  SANTAELLA MOGOLLON','B01D 3/00,B01D 11/00,B01D 11/02,B01D 11/04,B01D 21/00,B01D 53/14');</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4939268","NC2023/0015261")</f>
         <v>NC2023/0015261</v>
@@ -5931,12 +6608,16 @@
       <c r="H92" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I92" t="str">
+      <c r="I92" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="J92" s="7"/>
+      <c r="K92" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0015261','Patente de Invención Nacional','BASTÓN SATELITAL PARA INVIDENTES CON MEDIO TACTIL ALÁRMICO','2023-11-10','Publicada sin pago','Rosita Brilly  Ángel Reitsch','HELENA CAMARGO WILLIAMSON','A45B 3/00,G08B 13/24,G08B 21/02,G08B 21/24,G08B 26/00,A61H 3/06');</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5685365","NC2025/0005948")</f>
         <v>NC2025/0005948</v>
@@ -5962,12 +6643,16 @@
       <c r="H93" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I93" t="str">
+      <c r="I93" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="J93" s="7"/>
+      <c r="K93" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0005948','Patente de Invención Nacional','SISTEMA DE EMPAQUES ANULARES PARA PRENSAESTOPAS PARA POZOS','2025-05-08','Publicada sin pago','JAIME EDUARDO CAICEDO VARGAS','DAVID JESUS MENDEZ VILLAMIZAR','E21B 33/129,E21B 43/20,E21B 12/00,E21B 33/03,E21B 33/12,E21B 33/126');</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5636040","NC2025/0004749")</f>
         <v>NC2025/0004749</v>
@@ -5993,12 +6678,16 @@
       <c r="H94" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I94" t="str">
+      <c r="I94" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="J94" s="7"/>
+      <c r="K94" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0004749','Patente de Invención Nacional','SANITARIO ECOLOGICO CON ATMOSFERA NEGATIVA Y VACIO DE BAJO CONSUMO DE AGUA CON Y SIN DISPENSADOR DE CHORRO DE AGUA PARA ASEO PERSONAL PARA CONSTRUCCIONES AUTOSOSTENIBLES Y SUSTENTABLES','2025-04-15','Publicada sin pago','PABLO POCH FIGUEROA','PABLO POCH FIGUEROA','E03D 5/014,E03D 11/14,E03D 11/00,E03D 5/00,E03D 5/012');</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4942889","NC2023/0015425")</f>
         <v>NC2023/0015425</v>
@@ -6024,12 +6713,16 @@
       <c r="H95" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I95" t="str">
+      <c r="I95" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="J95" s="7"/>
+      <c r="K95" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0015425','Patente de Invención Nacional','ASPERSOR DE MOCHILA CON MECANISMO DE FUELLE','2023-11-15','Publicada sin pago','ALIDA MARIA  FLEURY BELLANDI','JUAN CARLOS CUESTA QUINTERO','A01M 9/00,A01G 25/14,B05B 3/00');</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5451492","NC2024/0015365")</f>
         <v>NC2024/0015365</v>
@@ -6055,15 +6748,19 @@
       <c r="H96" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I96" t="str">
+      <c r="I96" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="J96" s="7"/>
+      <c r="K96" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0015365','Patente de Invención Nacional','SILLA DE SOL CON SISTEMA DE ASPERSION Y POSICIONAMIENTO VARIABLE','2024-11-12','Publicada sin pago','ANA MARÍA RENGIFO LÓPEZ,juan carlos rengifo lopez','JUAN DAVID BURITICA MORA','A47C 3/025,A47C 7/72,B60N 2/10,A47C 1/024,A47C 1/025,A47C 1/14,A47C 3/02,A47C 3/027,A47D 13/10');</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?3582296","NC2021/0008257")</f>
-        <v>NC2021/0008257</v>
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5677342","NC2025/0005671")</f>
+        <v>NC2025/0005671</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>8</v>
@@ -6072,66 +6769,74 @@
         <v>339</v>
       </c>
       <c r="D97" s="2">
-        <v>44371</v>
+        <v>45779</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>112</v>
+        <v>340</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>113</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I97" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2021/0008257','Patente de Invención Nacional','SISTEMA DE ALMACENAMIENTO DE ENERGÍA Y MÉTODO DE FABRICACIÓN DEL MISMO','2021-06-24','Publicada sin pago','Behlen Christian ,Martinovic Bernard','JESUS MARIA MENDEZ BERMUDEZ','B60L 50/64,H01M 50/202');</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5677342","NC2025/0005671")</f>
-        <v>NC2025/0005671</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I97" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D98" s="2">
-        <v>45779</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I98" t="str">
+      <c r="J97" s="7"/>
+      <c r="K97" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0005671','Patente de Invención Nacional','BOTÓN DE TIMBRE INALÁMBRICO AUTOALIMENTADO PARA VEHÍCULOS DE TRANSPORTE DE PASAJEROS','2025-05-02','Publicada sin pago','PAULO FABIANO GATELLI','JESUS MARIA MENDEZ BERMUDEZ','H01H 13/52');</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="str">
+    <row r="98" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5465329","NC2024/0015769")</f>
         <v>NC2024/0015769</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45616</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="J98" s="7"/>
+      <c r="K98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0015769','Patente de Invención Nacional','SISTEMA MODULAR DE AHORRO ENERGÉTICO PARA REFRIGERACIÓN MEDIANTE LA INTEGRACIÓN DE REFRIGERACIÓN ACTIVA Y PASIVA','2024-11-20','Publicada sin pago','ISABEL PULIDO,Helmer Ricardo Cogua Barrera,Diana Paola Camacho Sarmiento','CARLOS REINALDO OLARTE GARCIA','F25D 3/00,F28D 20/02,F25D 31/00,B01L 1/02,B01L 7/00,C12M 1/00,F24F 5/00');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="str">
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5464852","NC2024/0015737")</f>
+        <v>NC2024/0015737</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D99" s="2">
         <v>45616</v>
@@ -6140,91 +6845,103 @@
         <v>9</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="I99" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0015769','Patente de Invención Nacional','SISTEMA MODULAR DE AHORRO ENERGÉTICO PARA REFRIGERACIÓN MEDIANTE LA INTEGRACIÓN DE REFRIGERACIÓN ACTIVA Y PASIVA','2024-11-20','Publicada sin pago','ISABEL PULIDO,Helmer Ricardo Cogua Barrera,Diana Paola Camacho Sarmiento','CARLOS REINALDO OLARTE GARCIA','F25D 3/00,F28D 20/02,F25D 31/00,B01L 1/02,B01L 7/00,C12M 1/00,F24F 5/00');</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5464852","NC2024/0015737")</f>
-        <v>NC2024/0015737</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D100" s="2">
-        <v>45616</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I100" t="str">
+      <c r="I99" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="J99" s="7"/>
+      <c r="K99" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0015737','Patente de Invención Nacional','SISTEMA Y MÉTODO AUTOMATIZADO PARA TAMIZAR MUESTRAS DE SUELOS ','2024-11-20','Publicada sin pago','MARIO ARBULÚ SAAVEDRA,David  Saavedra Mora,LISED GUACA CRUZ,DANIEL ANDRES URREGO ARDILA,EMILIANO GUANIPA GARCIA','OSCAR EDUARDO CHAVARRO ARIAS','B07B 1/00,B07B 1/15,B07B 1/46');</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="str">
+    <row r="100" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5206464","NC2024/0006362")</f>
         <v>NC2024/0006362</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45432</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D101" s="2">
-        <v>45432</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I101" t="str">
+      <c r="I100" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="J100" s="7"/>
+      <c r="K100" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0006362','Patente de Invención Nacional','DISPOSITIVO DE AGARRE SUB-ACTUADO DE POSICIONES AJUSTABLES PARA PRÓTESIS MIOELÉCTRICAS','2024-05-20','Publicada sin pago','Sofía Catalina Henao Aguirre,Simon Cuartas Escobar,Daniel Escobar Saltarén,Ana María Posada Borrero,Maria Bernarda  Salazar Sánchez,Estefanía Aramburo Villa,Jorge Alberto Robledo Ramírez,Sara Salazar Salgado,Luz Ángela Calderón Calderón,Juan Carlos Parra Peláez','JOSE ANDRES RINCON USCATEGUI','A01K 83/04,A61C 13/28,A61F 2/78');</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="str">
+    <row r="101" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5665718","NC2025/0005113")</f>
         <v>NC2025/0005113</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45771</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="J101" s="7"/>
+      <c r="K101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0005113','Patente de Invención Nacional','SISTEMA Y MÉTODO PARA LA ESTIMACIÓN Y GESTIÓN DE INCERTIDUMBRE EN RESULTADOS DE ANÁLISIS DE LABORATORIO','2025-04-24','Publicada sin pago','Frank David  Gómez Pinto,Fernando  Jaimes Carreño','JOSE ANDRES RINCON USCATEGUI','G06F 17/15,G06F 11/34,G06F 17/18,G06F 17/40');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="str">
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5664479","NC2025/0005126")</f>
+        <v>NC2025/0005126</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D102" s="2">
         <v>45771</v>
@@ -6233,91 +6950,103 @@
         <v>9</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I102" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0005113','Patente de Invención Nacional','SISTEMA Y MÉTODO PARA LA ESTIMACIÓN Y GESTIÓN DE INCERTIDUMBRE EN RESULTADOS DE ANÁLISIS DE LABORATORIO','2025-04-24','Publicada sin pago','Frank David  Gómez Pinto,Fernando  Jaimes Carreño','JOSE ANDRES RINCON USCATEGUI','G06F 17/15,G06F 11/34,G06F 17/18,G06F 17/40');</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5664479","NC2025/0005126")</f>
-        <v>NC2025/0005126</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I102" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="D103" s="2">
-        <v>45771</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I103" t="str">
+      <c r="J102" s="7"/>
+      <c r="K102" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0005126','Patente de Invención Nacional','MAQUINA Y PROCESO PARA RASURADO DE PIEL ANIMAL ','2025-04-24','Publicada sin pago','OLGA PRAXCEDIS PRIETO MARIN','OLGA PRAXCEDIS PRIETO MARIN','C14B 1/18,C14B 17/06,C14B 5/00,C14B 17/00,C14B 17/04,C14B 1/28,C14B 1/00,C14B 15/06,C14B 1/40');</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="str">
+    <row r="103" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4950278","NC2023/0015737")</f>
         <v>NC2023/0015737</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45251</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D104" s="2">
-        <v>45251</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I104" t="str">
+      <c r="I103" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="J103" s="7"/>
+      <c r="K103" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0015737','Patente de Invención Nacional','ASADOR PLEGABLE Y TRANSPORTABLE.','2023-11-21','Publicada sin pago','DANIEL JACOBO  URREGO ECHEVERRI ','Nicolas Duque Martínez','A47J 37/00');</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="str">
+    <row r="104" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4956372","NC2023/0016146")</f>
         <v>NC2023/0016146</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45259</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="J104" s="7"/>
+      <c r="K104" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016146','Patente de Invención Nacional','ANILLO DE FIJACIÓN DE RODAMIENTO PARA MÁQUINAS ROTATIVAS ELÉCTRICAS Y MÁQUINA ROTATIVA ELÉCTRICA','2023-11-29','Publicada sin pago','JONATAS FRAGA ROCHA,VANDO VANDERLEI ADAMI','JOSE ANDRES RINCON USCATEGUI','H02K 5/124,H02K 5/18');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="str">
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4956700","NC2023/0016163")</f>
+        <v>NC2023/0016163</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D105" s="2">
         <v>45259</v>
@@ -6326,277 +7055,313 @@
         <v>9</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I105" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016146','Patente de Invención Nacional','ANILLO DE FIJACIÓN DE RODAMIENTO PARA MÁQUINAS ROTATIVAS ELÉCTRICAS Y MÁQUINA ROTATIVA ELÉCTRICA','2023-11-29','Publicada sin pago','JONATAS FRAGA ROCHA,VANDO VANDERLEI ADAMI','JOSE ANDRES RINCON USCATEGUI','H02K 5/124,H02K 5/18');</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4956700","NC2023/0016163")</f>
-        <v>NC2023/0016163</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D106" s="2">
-        <v>45259</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I106" t="str">
+      <c r="I105" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="J105" s="7"/>
+      <c r="K105" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016163','Patente de Invención Nacional','EMULSIÓN EN AGUA QUE CONTIENE ABAMECTINA Y FOSTIAZATO Y MÉTODO DE PREPARACIÓN DE LA MISMA','2023-11-29','Publicada sin pago','Zhiqing LI,Jianwei WANG,Baochen ZHAO,Dong Li','JUAN CARLOS CUESTA QUINTERO','A61K 8/06,A61K 9/00,A61K 31/00,A61K 39/00');</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="str">
+    <row r="106" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4970988","NC2023/0017031")</f>
         <v>NC2023/0017031</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45266</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D107" s="2">
-        <v>45266</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="G106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I107" t="str">
+      <c r="I106" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="J106" s="7"/>
+      <c r="K106" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0017031','Patente de Invención Nacional','TEXTIL ELECTRÓNICO','2023-12-06','Publicada sin pago','MARIA CLARA RESTREPO RESTREPO,José Valentín Antonio  Restrepo Laverde,Cristina Isabel  Castro Herazo ,Jairo José  Pérez García,Juan Camilo  Palacio Valderrama','CARLOS REINALDO OLARTE GARCIA','H03K 17/00,G06F 13/00');</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="str">
+    <row r="107" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4968119","NC2023/0016899")</f>
         <v>NC2023/0016899</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45265</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D108" s="2">
-        <v>45265</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="G107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I108" t="str">
+      <c r="I107" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="J107" s="7"/>
+      <c r="K107" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016899','Patente de Invención Nacional','APARATO Y MÉTODO PARA REGISTRAR UNA UBICACIÓN DE ALMACENAMIENTO POR TAMAÑO PARA TUBÉRCULOS COSECHADOS','2023-12-05','Publicada sin pago','Ighodaro  Emwinghare ,Colton  Campbell ,Ahmad Ali FALAH AL-MALLAHI','CAROLINA MERCEDES DAZA MONTALVO','G06T 7/30,G06T 1/00,G06T 1/60');</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="str">
+    <row r="108" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5714113","NC2025/0007077")</f>
         <v>NC2025/0007077</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45805</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D109" s="2">
-        <v>45805</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I109" t="str">
+      <c r="I108" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="J108" s="7"/>
+      <c r="K108" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0007077','Patente de Invención Nacional','INSTALACIÓN CIVIL PARA EL MEJORAMIENTO DEL SISTEMA DE IMPERMEABILIZACIÓN EN PLACAS DE CONCRETO EN CONTACTO CON TUBERÍAS Y EL MÉTODO DE CONSTRUCCIÓN DE DICHA INSTALACIÓN CIVIL','2025-05-28','Publicada sin pago','DIANA MARYORI GUEVARA LOZADA,CRISTIAN ALEXANDER GUEVARA CADAVID','LUIS EDUARDO QUINTERO VARGAS','F16L 1/038,F16L 58/16,F16L 33/22,F16L 11/04,F16L 41/10,F16L 55/053');</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="str">
+    <row r="109" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5593711","NC2025/0004353")</f>
         <v>NC2025/0004353</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45779</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D110" s="2">
-        <v>45779</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="1" t="s">
+      <c r="G109" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="I110" t="str">
+      <c r="I109" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0004353','Patente de Invención Nacional','SISTEMA INTEGRAL DE SEGURIDAD, VIGILANCIA Y ENTREGA AÉREA BASADA EN DRONES CON SENSORES INTELIGENTES DE RESPUESTA ADAPTATIVA','2025-05-02','Publicada sin pago','Eder Vargas Puerto','Eder Vargas Puerto','B03C 3/04,B03C 3/41,B03C 3/47,B03C 3/66,B64C 39/02,B64D 27/24,B64D 47/00,G06T 7/90');</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="str">
+    <row r="110" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5483513","NC2024/0016659")</f>
         <v>NC2024/0016659</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45629</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D111" s="2">
-        <v>45629</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="G110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I111" t="str">
+      <c r="I110" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="J110" s="7"/>
+      <c r="K110" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0016659','Patente de Invención Nacional','PREPARACIÓN IN SITU DE UN NANOCOMPOSITO DE PUNTOS CUÁNTICOS SENSIBLE A METALES PESADOS Y DISPOSITIVO PORTÁTIL PARA LA DETERMINACIÓN DE METALES PESADOS QUE COMPRENDE DICHO NANOCOMPOSITO','2024-12-03','Publicada sin pago','Daniel Alexander  Velazco Capacho,CRISTIAN BLANCO TIRADO,CARLOS LIZARDO CORZO RUIZ,Jhonny Mauricio Ceron Cifuentes,MARIANNY YAJAIRA  COMBARIZA,DANIEL ALFONSO  AMAYA GARCÍA,RAFAEL AUGUSTO  NÚÑEZ RODRÍGUEZ,CRISTHIAM JESID  GUTIÉRREZ LOZANO,CARLOS IVÁN NOVA PINZÓN','CARLOS REINALDO OLARTE GARCIA','G06F 3/00,C09K 11/00,C12Q 1/6841');</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="str">
+    <row r="111" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5718961","NC2025/0007076")</f>
         <v>NC2025/0007076</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45805</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D112" s="2">
-        <v>45805</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I112" t="str">
+      <c r="I111" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="J111" s="7"/>
+      <c r="K111" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0007076','Patente de Invención Nacional','KIT DE CONEXIÓN DE BARRAS DE SECCIÓN CILÍNDRICA PARA LA CONSTRUCCIÓN DE ESTRUCTURAS RETICULADAS','2025-05-28','Publicada sin pago','MANUEL FERNANDO  MARTÍNEZ FORERO','EDWIN CICERY VEGA','E04B 1/58,E04C 2/16,E04C 3/12,F16B 7/04,E04B 1/26,F16B 7/00,F16B 7/18,F16C 11/04');</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="str">
+    <row r="112" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5393358","NC2024/0013377")</f>
         <v>NC2024/0013377</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45565</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D113" s="2">
-        <v>45565</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="1" t="s">
+      <c r="G112" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I113" t="str">
+      <c r="I112" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="J112" s="7"/>
+      <c r="K112" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0013377','Patente de Invención Nacional','TANQUE DOBLE PARED DESMONTABLE DE BASE CUADRANGULAR ','2024-09-30','Publicada sin pago','DANIEL SANTIAGO BETANCOURT HUERFANO','DANIEL SANTIAGO BETANCOURT HUERFANO','B29C 44/34');</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="str">
+    <row r="113" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4962203","NC2023/0016703")</f>
         <v>NC2023/0016703</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45260</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I113" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="J113" s="7"/>
+      <c r="K113" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016703','Patente de Invención Nacional','SISTEMA DE ALCALINIZACIÓN POR ELECTROQUÍMICA PARA REMOCIÓN DE CATIONES DUROS POR MINERALIZACIÓN DE CO2 DE AGUAS DE LA INDUSTRIA DE PETRÓLEO Y GAS','2023-11-30','Publicada sin pago','JOSÉ ARISTÓBULO SARMIENTO CHAPARRO,GLORIA ISABEL DUARTE POVEDA,EDGAR FERNANDO CASTILLO MONROY,Dalje Sunith BARBOSA TRILLOS,DANIEL ALEJANDRO PATROUILLEAU QUINTANA,Carlos Alberto Echeverry Gonzalez,CAMILO ENRIQUE LA ROTTA HERNANDEZ','LUZ MARA HERRERA HERRERA','C02F 1/00,C02F 1/28,C02F 1/46,C02F 1/461,C02F 9/00');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="str">
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4962235","NC2023/0016709")</f>
+        <v>NC2023/0016709</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D114" s="2">
         <v>45260</v>
@@ -6605,29 +7370,33 @@
         <v>9</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I114" t="str">
+        <v>396</v>
+      </c>
+      <c r="I114" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="J114" s="7"/>
+      <c r="K114" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016703','Patente de Invención Nacional','SISTEMA DE ALCALINIZACIÓN POR ELECTROQUÍMICA PARA REMOCIÓN DE CATIONES DUROS POR MINERALIZACIÓN DE CO2 DE AGUAS DE LA INDUSTRIA DE PETRÓLEO Y GAS','2023-11-30','Publicada sin pago','JOSÉ ARISTÓBULO SARMIENTO CHAPARRO,GLORIA ISABEL DUARTE POVEDA,EDGAR FERNANDO CASTILLO MONROY,Dalje Sunith BARBOSA TRILLOS,DANIEL ALEJANDRO PATROUILLEAU QUINTANA,Carlos Alberto Echeverry Gonzalez,CAMILO ENRIQUE LA ROTTA HERNANDEZ','LUZ MARA HERRERA HERRERA','C02F 1/00,C02F 1/28,C02F 1/46,C02F 1/461,C02F 9/00');</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016709','Patente de Invención Nacional','MÉTODO ELECTROQUÍMICO DE REMOCIÓN DE CATIONES DUROS ACOPLADO A DESCARBONIZACIÓN, CON APLICACIÓN AL SUAVIZADO DE AGUAS DE INYECCIÓN EN LA INDUSTRIA DE PETRÓLEO Y GAS NATURAL','2023-11-30','Publicada sin pago','DANIEL ALEJANDRO PATROUILLEAU QUINTANA,Carlos Alberto Echeverry Gonzalez,CAMILO ENRIQUE LA ROTTA HERNANDEZ','LUZ MARA HERRERA HERRERA','C23G 5/00');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4962235","NC2023/0016709")</f>
-        <v>NC2023/0016709</v>
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4956416","NC2023/0016657")</f>
+        <v>NC2023/0016657</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D115" s="2">
         <v>45260</v>
@@ -6636,215 +7405,243 @@
         <v>9</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I115" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016709','Patente de Invención Nacional','MÉTODO ELECTROQUÍMICO DE REMOCIÓN DE CATIONES DUROS ACOPLADO A DESCARBONIZACIÓN, CON APLICACIÓN AL SUAVIZADO DE AGUAS DE INYECCIÓN EN LA INDUSTRIA DE PETRÓLEO Y GAS NATURAL','2023-11-30','Publicada sin pago','DANIEL ALEJANDRO PATROUILLEAU QUINTANA,Carlos Alberto Echeverry Gonzalez,CAMILO ENRIQUE LA ROTTA HERNANDEZ','LUZ MARA HERRERA HERRERA','C23G 5/00');</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4956416","NC2023/0016657")</f>
-        <v>NC2023/0016657</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D116" s="2">
-        <v>45260</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I116" t="str">
+      <c r="I115" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="J115" s="7"/>
+      <c r="K115" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016657','Patente de Invención Nacional','MÉTODO DE PRODUCCIÓN DE BIOCERA CON ALTO CONTENIDO DE ÉSTERES CEROSOS','2023-11-30','Publicada sin pago','LAURA LILIANA GARZÓN FUENTES,Giovanny Arnulfo  Olarte Suarez,ANDRES FERNANDO RAMIREZ QUINTERO,DEBORA ALCIDA NABARLATZ,JULY CAROLINA VIVAS BAEZ,Luis Javier  LÓPEZ GIRALDO','LUZ MARA HERRERA HERRERA','C10G 3/00,C10G 45/58,C07C 1/00');</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="str">
+    <row r="116" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4966970","NC2023/0016853")</f>
         <v>NC2023/0016853</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45264</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D117" s="2">
-        <v>45264</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="1" t="s">
+      <c r="G116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I117" t="str">
+      <c r="I116" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="J116" s="7"/>
+      <c r="K116" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0016853','Patente de Invención Nacional','MARCO DE TRANSICIÓN DE BARRERA','2023-12-04','Publicada sin pago','Benjamin Fraser Powell,William Price Longstreet,Dean Clinton Alberson','CARLOS REINALDO OLARTE GARCIA','E01F 9/669,E01F 13/00,E01F 13/10,E01F 15/00,E01F 15/02');</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="str">
+    <row r="117" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4980598","NC2023/0017271")</f>
         <v>NC2023/0017271</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45273</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D118" s="2">
-        <v>45273</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I118" t="str">
+      <c r="I117" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="J117" s="7"/>
+      <c r="K117" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0017271','Patente de Invención Nacional','SISTEMA DE PREPARACIÓN Y FILTRADO DE INFUSIONES QUE COMPRENDE UN MÓDULO CONTENEDOR Y UN MÓDULO DE FILTRADO Y CIERRE INTEGRADOS','2023-12-13','Publicada sin pago','LUIS FERNANDO VELEZ ZULUAGA,HUGO ANDRES LOPEZ ,VICENTE DE JESÚS FRANCO BAYONA','HUGO ANDRES LOPEZ ','A47G 19/14,A23L 2/00,A47J 31/06,A47J 31/42,A47J 31/44');</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="str">
+    <row r="118" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5681914","NC2025/0005847")</f>
         <v>NC2025/0005847</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45783</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D119" s="2">
-        <v>45783</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="G118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I119" t="str">
+      <c r="I118" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="J118" s="7"/>
+      <c r="K118" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0005847','Patente de Invención Nacional','SNACKS DE FRUTA LIOFILIZADA Y PROCESO DE FABRICACIÓN','2025-05-06','Publicada sin pago','Juan Pablo Ortiz Rosas,Juan Carlos Quitian Romero,ALBA LORENA  BENAVIDES SIERRA','HUGO DANIEL   GONZALEZ HERNANDEZ','A23L 35/00,A23L 27/12,A23L 19/00');</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="str">
+    <row r="119" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5700062","NC2025/0006456")</f>
         <v>NC2025/0006456</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45796</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D120" s="2">
-        <v>45796</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="G119" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I120" t="str">
+      <c r="I119" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="J119" s="7"/>
+      <c r="K119" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0006456','Patente de Invención Nacional','DISPOSITIVO DE TRATAMIENTO Y RECIRCULACION DE AGUA EN SANITARIOS Y SU METODO DE CONTROL','2025-05-19','Publicada sin pago','ethan steven ramirez betancur','ethan steven ramirez betancur','C02F 1/00,C02F 3/00,C02F 1/28,C02F 3/34');</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="str">
+    <row r="120" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5664332","NC2025/0005079")</f>
         <v>NC2025/0005079</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45770</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D121" s="2">
-        <v>45770</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="1" t="s">
+      <c r="G120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="I121" t="str">
+      <c r="I120" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="J120" s="7"/>
+      <c r="K120" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0005079','Patente de Invención Nacional','HERRAMIENTA DE CORTE DE EMERGENCIA DE CABLE ESP APLICABLE EN EXTRACCIÓN DE HIDROCARBUROS POR MEDIO DE BOMBEO ELECTRO SUMERGIBLE','2025-04-23','Publicada sin pago','Julian David  Saavedra Lozano ','SANDRA MILENA RODRIGUEZ SARMIENTO','E21B 7/15,E21B 43/112,E21B 43/00,E21B 15/02,E21B 19/09,E21B 3/02');</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="str">
+    <row r="121" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4982132","NC2023/0017351")</f>
         <v>NC2023/0017351</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="J121" s="7"/>
+      <c r="K121" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0017351','Patente de Invención Nacional','SISTEMA DE ASISTENCIA PARA LA CONDUCCIÓN Y MONITOREO ESPACIAL DEL ENTORNO PARA VEHÍCULO','2023-12-14','Publicada sin pago','PEDRO JULIÁN  GARCÍA GUARÍN ,José Antonio BORRAEZ CASTRO,Juan Diego MÉNDEZ TACHE,Rossemberg ESPINEL,Andrés Camilo RODRÍGUEZ ROBERTO,Ana María VIRVIESCAS PÉREZ,Michael Andrés CACAIS MANRIQUE','LIZBETH CALVO','B60W 50/00,B60W 30/08,H04M 1/725,H04W 48/04,H04L 12/40');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="str">
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4982214","NC2023/0017357")</f>
+        <v>NC2023/0017357</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D122" s="2">
         <v>45274</v>
@@ -6853,587 +7650,663 @@
         <v>9</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I122" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0017351','Patente de Invención Nacional','SISTEMA DE ASISTENCIA PARA LA CONDUCCIÓN Y MONITOREO ESPACIAL DEL ENTORNO PARA VEHÍCULO','2023-12-14','Publicada sin pago','PEDRO JULIÁN  GARCÍA GUARÍN ,José Antonio BORRAEZ CASTRO,Juan Diego MÉNDEZ TACHE,Rossemberg ESPINEL,Andrés Camilo RODRÍGUEZ ROBERTO,Ana María VIRVIESCAS PÉREZ,Michael Andrés CACAIS MANRIQUE','LIZBETH CALVO','B60W 50/00,B60W 30/08,H04M 1/725,H04W 48/04,H04L 12/40');</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4982214","NC2023/0017357")</f>
-        <v>NC2023/0017357</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D123" s="2">
-        <v>45274</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I123" t="str">
+      <c r="I122" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="J122" s="7"/>
+      <c r="K122" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0017357','Patente de Invención Nacional','DISPOSITIVO PARA EL APRENDIZAJE DEL SISTEMA BRAILLE MEDIANTE EL USO DE ONDAS DE ULTRASONIDO','2023-12-14','Publicada sin pago','Juan Esteban MERCHÁN BALAGUERA,Álvaro FERNÁNDEZ ACEVEDO','LIZBETH CALVO','G06F 3/01,G06T 7/40,G06T 19/00,G06F 3/042');</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="str">
+    <row r="123" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5734544","NC2025/0007623")</f>
         <v>NC2025/0007623</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45817</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D124" s="2">
-        <v>45817</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="G123" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="I124" t="str">
+      <c r="I123" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="J123" s="7"/>
+      <c r="K123" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0007623','Patente de Invención Nacional','INFILTROMETRO DE FLOTADOR EN SATURACIÓN ','2025-06-09','Publicada sin pago','Cristian Angarita Parra','Cristian Angarita Parra','E02B 11/00,G01N 15/08,G01N 33/24');</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="str">
+    <row r="124" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5735704","NC2025/0007653")</f>
         <v>NC2025/0007653</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45818</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D125" s="2">
-        <v>45818</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="G124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I125" t="str">
+      <c r="I124" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="J124" s="7"/>
+      <c r="K124" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0007653','Patente de Invención Nacional','DISPOSITIVO DE CONTROL DE CONDICIONES Y PARAMETROS EN UNA INCUBADORA POR MEDIO DE COMUNICACIÓN INALAMBRICA','2025-06-10','Publicada sin pago','PEDRO ANTONIO AYA PARRA,JEFFERSON STEVEN SARMIENTO ROJAS,Viviana Rodriguez Torres,Nidia Patricia Córdoba Hernández','CLAUDIA LUCIA CARO RAMIREZ','G05B 19/048,G05D 23/20,A61G 11/00,G01D 21/02');</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="str">
+    <row r="125" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5565388","NC2025/0001509")</f>
         <v>NC2025/0001509</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45700</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D126" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H125" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="I126" t="str">
+      <c r="I125" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="J125" s="7"/>
+      <c r="K125" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0001509','Patente de Invención Nacional','SISTEMA INCINERADOR DE DESECHOS CON TRATAMIENTO DE GASES RESIDUALES PARA ELIMINACIÓN DE DIÓXIDO DE CARBONO','2025-02-12','Publicada sin pago','LUIS ANGEL CASTRILLON ARDILA','FERNANDO TRIANA SOTO','B01D 46/34,B01D 46/50,B01D 47/04');</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="str">
+    <row r="126" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5644740","NC2025/0004474")</f>
         <v>NC2025/0004474</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45754</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D127" s="2">
-        <v>45754</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="G126" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I127" t="str">
+      <c r="I126" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="J126" s="7"/>
+      <c r="K126" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0004474','Patente de Invención Nacional','MUEBLE TRANSPORTABLE RECOLECTOR DE BOTELLAS','2025-04-07','Publicada sin pago','MARIO ERNESTO PEREZ GUTIERREZ','CARLOS FERNANDO TAMAYO LOPEZ','B65D 77/12,B65D 90/00,B65D 88/60,B65D 88/12,B65D 5/496');</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="str">
+    <row r="127" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5251632","NC2024/0008059")</f>
         <v>NC2024/0008059</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="B127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I128" t="str">
+      <c r="I127" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="J127" s="7"/>
+      <c r="K127" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0008059','Patente de Invención Nacional','DISPOSITIVO DE EXTRACCIÓN DE AIRE EN CONTENEDORES  ','21-06-. 2024','Publicada sin pago','ELIZABETH RENDON VELEZ,DAVID  RIOS ZAPATA,Paola Andrea Vallejo Correa,Santiago Ruiz Arenas','MARIA PAULA PÉREZ GÓMEZ','B65F 1/06,B65F 1/08,B65D 25/14');</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="str">
+    <row r="128" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4993914","NC2023/0018155")</f>
         <v>NC2023/0018155</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="B128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I129" t="str">
+      <c r="I128" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="J128" s="7"/>
+      <c r="K128" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018155','Patente de Invención Nacional','BIOESTIMULANTE VEGETAL A BASE DE CONCENTRADO DE MUCÍLAGO DE CAFÉ','21-12-. 2023','Publicada sin pago','ANDRES RAMIREZ VELEZ,JUAN CARLOS JARAMILLO LOPEZ','Andrés  Córdoba','A23F 5/00,A23F 5/02,A23F 5/10,A23F 5/24,A23F 5/46');</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="str">
+    <row r="129" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4978716","NC2023/0017893")</f>
         <v>NC2023/0017893</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I130" t="str">
+      <c r="I129" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="J129" s="7"/>
+      <c r="K129" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0017893','Patente de Invención Nacional','APARATO PARA LA PRODUCCIÓN DE FILAMENTOS','19-12-. 2023','Publicada sin pago','Stephan Gerharz','ADRIANA PAOLA PEÑARANDA URBINA','B29C 48/30,D01D 4/02,D01D 4/06,D01D 1/00,D01D 5/00');</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="str">
+    <row r="130" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5509320","NC2024/0017757")</f>
         <v>NC2024/0017757</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="1" t="s">
+      <c r="G130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="I131" t="str">
-        <f t="shared" ref="I131:I157" si="2">"INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('"&amp;TRIM(CLEAN(A131))&amp;"','"&amp;CLEAN(B131)&amp;"','"&amp;CLEAN(C131)&amp;"','"&amp;TEXT(D131,"yyyy-MM-dd")&amp;"','"&amp;CLEAN(E131)&amp;"','"&amp;CLEAN(F131)&amp;"','"&amp;CLEAN(G131)&amp;"','"&amp;TRIM(CLEAN(H131))&amp;"');"</f>
+      <c r="I130" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="J130" s="7"/>
+      <c r="K130" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0017757','Patente de Invención Nacional','COMPOSICIÓN FARMACÉUTICA SINÉRGICA Y ESTABLE DE UN AINE Y UN ANALGÉSICO OPIOIDE PARA EL DOLOR E INFLAMACIÓN','23-12-. 2024','Publicada sin pago','Jorge Alejandro GONZÁLEZ CANUDAS,Cecilia Jannette MUÑOZ MARTINEZ,Marco Antonio ESPINOSA OLIVARES,Paola Yazmín OLLERVIDES RUBIO,José Guillermo SANDER PADILLA','ALICIA LLOREDA RICAURTE','A61K 9/00,A61K 9/14,A61K 9/20,A61K 9/48,A61K 31/135,A61K 31/137,A61K 31/444');</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="str">
+    <row r="131" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5506566","NC2024/0017538")</f>
         <v>NC2024/0017538</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="B131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="1" t="s">
+      <c r="G131" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I132" t="str">
-        <f t="shared" si="2"/>
+      <c r="I131" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="J131" s="7"/>
+      <c r="K131" t="str">
+        <f t="shared" ref="K131:K157" si="2">"INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('"&amp;TRIM(CLEAN(A131))&amp;"','"&amp;CLEAN(B131)&amp;"','"&amp;CLEAN(C131)&amp;"','"&amp;TEXT(D131,"yyyy-MM-dd")&amp;"','"&amp;CLEAN(E131)&amp;"','"&amp;CLEAN(F131)&amp;"','"&amp;CLEAN(G131)&amp;"','"&amp;TRIM(CLEAN(H131))&amp;"');"</f>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0017538','Patente de Invención Nacional','MÉTODO PARA PRODUCIR METABOLITOS PROTEICOS PEGILADOS CON ACTIVIDAD ANTIVIRAL,  ANTIBACTERIANA Y REPARADORA DE LA ESTRUCTURA INTESTINAL, A PARTIR DE UN CULTIVO BACTERIANO DE BIFIDOBACTERIUM ADOLESCENTIS','20-12-. 2024','Publicada sin pago','María José  Hernández Zuluaga ,María Belén  Cabrera Castro,Nury Nathalia  Olaya Galán,Geimnir Yazmin  Lopez Rozo,Sandra Patricia  Salas Cárdenas,Karem Prunella  Fernandez Duarte,Balkys Esmeralda  Quevedo Hidalgo,Juan Carlos  Ulloa Rubiano','JOSE ANDRES RINCON USCATEGUI','C12N 1/00,C12N 1/20,C12N 15/00,C12N 9/00,C12N 5/00');</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="str">
+    <row r="132" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5507348","NC2024/0017676")</f>
         <v>NC2024/0017676</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="G132" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I133" t="str">
+      <c r="I132" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="J132" s="7"/>
+      <c r="K132" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0017676','Patente de Invención Nacional','PROTEÍNA HÍBRIDA PARA EL DIAGNÓSTICO MOLECULAR DE ALERGIA INDUCIDA POR ÁCAROS DOMÉSTICOS','20-12-. 2024','Publicada sin pago','LUIS  CARABALLO,LEONARDO  PUERTA LLERENA,DALGYS  MARTÍNEZ DE LA OSSA','CARLOS REINALDO OLARTE GARCIA','C07K 14/435,A61K 39/35,C07K 5/00,A61K 35/38,A61K 39/00,A61K 39/39');</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="str">
+    <row r="133" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5715339","NC2025/0006900")</f>
         <v>NC2025/0006900</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="1" t="s">
+      <c r="G133" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I134" t="str">
+      <c r="I133" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="J133" s="7"/>
+      <c r="K133" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0006900','Patente de Invención Nacional','SISTEMA DE UN SEÑALIZADOR LUMINOSO PORTABLE CONTROLADO POR MEDIO DE DISTINTOS CONTROLES A TRAVÉS DE UN MÉTODO Y PROCEDIMIENTO PARA USUARIOS DE BICICLETA, MOTO, PATINETA ELÉCTRICA, SILLA DE RUEDAS O EN CUALQUIER OTRO MEDIO DE MOVILIDAD TERRESTRE QUE UTILICE','26-05-. 2025','Publicada sin pago','Jonathan Alexander Nieves Suarez','Jonathan Alexander Nieves Suarez','F21S 10/06,F21L 4/00,F21V 23/00,F21V 23/04,A41D 13/01,F21V 21/088,F21V 33/00,G07C 5/08,H04M 1/72454,H04M 1/72457,H04M 11/04');</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="str">
+    <row r="134" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4998192","NC2023/0018430")</f>
         <v>NC2023/0018430</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="G134" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I135" t="str">
+      <c r="I134" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="J134" s="7"/>
+      <c r="K134" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018430','Patente de Invención Nacional','COMPOSICIÓN DE MICROEMULSIÓN DE DINOTEFURAN, SU PROCESO DE PREPARACIÓN Y USO','26-12-. 2023','Publicada sin pago','RAFAELA CRISTINA  FEITOSA CORSI ,Natália GONÇALVES,JOÃO PAULO  ALEIXO ,Felipe Augusto SOARES DA SILVA','CAROLINA MERCEDES DAZA MONTALVO','A01N 43/40,A01N 51/00,A01P 7/04');</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="str">
+    <row r="135" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5687341","NC2025/0006021")</f>
         <v>NC2025/0006021</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I136" t="str">
+      <c r="I135" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="J135" s="7"/>
+      <c r="K135" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0006021','Patente de Invención Nacional','UTENSILIO DE COCCIÓN PARA UN APARATO DE PREPARACIÓN DE ALIMENTOS','09-05-. 2025','Publicada sin pago','Marie  DUSSART,Gautier FRADET,Johann PETITALLOT,Guillaume PRIETO,Frédéric SEURAT','INES CONSUELO BENJUMEA RENDON','A21B 2/00,A21B 5/00,A21B 5/02,A47J 27/00');</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="str">
+    <row r="136" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5687380","NC2025/0006019")</f>
         <v>NC2025/0006019</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" s="1" t="s">
+      <c r="G136" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I137" t="str">
+      <c r="I136" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="J136" s="7"/>
+      <c r="K136" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0006019','Patente de Invención Nacional','APARATO PARA LA PREPARACIÓN DE ALIMENTOS QUE COMPRENDE UNA CARCASA Y UN UTENSILIO DE COCCIÓN EXTRAÍBLE','09-05-. 2025','Publicada sin pago','Bernard ALLEMAND,Marie  DUSSART,Gautier FRADET,Johann PETITALLOT,Guillaume PRIETO,Frédéric SEURAT','INES CONSUELO BENJUMEA RENDON','A47J 36/12,A47J 31/44,A47J 43/07');</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="str">
+    <row r="137" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4986182","NC2023/0017721")</f>
         <v>NC2023/0017721</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I137" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="J137" s="7"/>
+      <c r="K137" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0017721','Patente de Invención Nacional','MÉTODO DE OBTENCIÓN DE DATOS DE PREDICCIÓN DE RIESGO DE ENFERMEDAD METABÓLICA','18-12-. 2023','Publicada sin pago','Bernadette Francisca KLOTZ CEBERIO,Diana Harleidy  VARGAS TRUJILLO,Narmer Fernando  GALEANO VANEGAS ','CARLOS REINALDO OLARTE GARCIA','G16B 40/20,G16B 50/10,G16H 20/60,G16H 50/20,H01L 27/32,G06F 1/00,G16H 50/30');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="str">
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4993978","NC2023/0018200")</f>
+        <v>NC2023/0018200</v>
+      </c>
       <c r="B138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I138" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0017721','Patente de Invención Nacional','MÉTODO DE OBTENCIÓN DE DATOS DE PREDICCIÓN DE RIESGO DE ENFERMEDAD METABÓLICA','18-12-. 2023','Publicada sin pago','Bernadette Francisca KLOTZ CEBERIO,Diana Harleidy  VARGAS TRUJILLO,Narmer Fernando  GALEANO VANEGAS ','CARLOS REINALDO OLARTE GARCIA','G16B 40/20,G16B 50/10,G16H 20/60,G16H 50/20,H01L 27/32,G06F 1/00,G16H 50/30');</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?4993978","NC2023/0018200")</f>
-        <v>NC2023/0018200</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I139" t="str">
+      <c r="I138" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="J138" s="7"/>
+      <c r="K138" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018200','Patente de Invención Nacional','BEBIDA LÁCTEA FERMENTADA PARA EL RENDIMIENTO MENTAL Y MÉTODO DE OBTENCIÓN','22-12-. 2023','Publicada sin pago','Bernadette Francisca KLOTZ CEBERIO,Mary Luz Cano Sepúlveda','CARLOS REINALDO OLARTE GARCIA','C12N 1/20,A23L 2/52,C12R 1/125');</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="str">
+    <row r="139" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5481543","NC2024/0017930")</f>
         <v>NC2024/0017930</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="B139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="G139" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I140" t="str">
+      <c r="I139" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="J139" s="7"/>
+      <c r="K139" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0017930','Patente de Invención Nacional','PROCEDIMIENTO PARA LA PRODUCCIÓN DE POLIHIDROXIBUTIRATO (PHB) A PARTIR DE RESIDUOS DEL BENEFICIO DE CAFÉ','24-12-. 2024','Publicada sin pago','HOWARD DIEGO  RAMÍREZ MALULE,DAVID ANDRÉS     GÓMEZ RÍOS    ,GUSTAVO ANDRÉS   SANJUAN VANEGAS,MARÍA CAMILA  LÓPEZ AGUDELO ','FELIPE EDUARDO  FIGUEROA CARDOZO','C12P 1/04,C12P 7/02,C12P 7/42');</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="str">
+    <row r="140" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5004149","NC2023/0018742")</f>
         <v>NC2023/0018742</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45289</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J140" s="7"/>
+      <c r="K140" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018742','Patente de Invención Nacional','PROCESO DE PURIFICACIÓN DE MACROMOLÉCULAS CON ETAPAS DE PRECIPITACIÓN SELECTIVA, CONCENTRACIÓN Y DIÁLISIS COMBINADAS EN CONDICIONES CONSTANTES DE ESTABILIDAD CON EL CUAL SE OBTIENEN FORMULACIONES ESTABLES Y DE ALTA PUREZA','2023-12-29','Publicada sin pago','SERGIO ANDRÉS PULIDO MUÑOZ,LUIS RAFAEL DELGADO LEON,MARIA FERNANDA FLOREZ GONZALEZ,LINA MARIA ESCOBAR NARANJO,ALBA MELINA BECERRA GUEVARA,GUILLERMO JAVIER VILÁ ORTIZ,NATALIA GIL LEON,MARIO ANDRES BERRIO CASTAÑEDA','MONICA MARCELA LOZANO GUZMAN','B01D 11/02,B01D 11/04,B01D 17/02,B01D 17/04,B01D 21/00,B01D 53/00,B01D 53/14');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="str">
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5004037","NC2023/0018740")</f>
+        <v>NC2023/0018740</v>
+      </c>
       <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D141" s="2">
         <v>45289</v>
@@ -7442,29 +8315,33 @@
         <v>9</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="H141" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I141" t="str">
+        <v>495</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J141" s="7"/>
+      <c r="K141" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018742','Patente de Invención Nacional','PROCESO DE PURIFICACIÓN DE MACROMOLÉCULAS CON ETAPAS DE PRECIPITACIÓN SELECTIVA, CONCENTRACIÓN Y DIÁLISIS COMBINADAS EN CONDICIONES CONSTANTES DE ESTABILIDAD CON EL CUAL SE OBTIENEN FORMULACIONES ESTABLES Y DE ALTA PUREZA','2023-12-29','Publicada sin pago','SERGIO ANDRÉS PULIDO MUÑOZ,LUIS RAFAEL DELGADO LEON,MARIA FERNANDA FLOREZ GONZALEZ,LINA MARIA ESCOBAR NARANJO,ALBA MELINA BECERRA GUEVARA,GUILLERMO JAVIER VILÁ ORTIZ,NATALIA GIL LEON,MARIO ANDRES BERRIO CASTAÑEDA','MONICA MARCELA LOZANO GUZMAN','B01D 11/02,B01D 11/04,B01D 17/02,B01D 17/04,B01D 21/00,B01D 53/00,B01D 53/14');</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018740','Patente de Invención Nacional','SISTEMA DE SEPARACIÓN DE COMPONENTES PLASMÁTICOS POR DESCONGELAMIENTO CONTROLADO MEDIANTE UNOS MECANISMOS INTEGRADOS DE TRANSFERENCIA TÉRMICA CONTROLADA Y SEDIMENTACIÓN ACELERADA EN UNOS MEDIOS CONTINUOS','2023-12-29','Publicada sin pago','SERGIO ANDRÉS PULIDO MUÑOZ,LUIS RAFAEL DELGADO LEON,GUILLERMO JAVIER VILÁ ORTIZ','MONICA MARCELA LOZANO GUZMAN','A61B 5/00');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5004037","NC2023/0018740")</f>
-        <v>NC2023/0018740</v>
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5004100","NC2023/0018741")</f>
+        <v>NC2023/0018741</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D142" s="2">
         <v>45289</v>
@@ -7473,246 +8350,278 @@
         <v>9</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="I142" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018740','Patente de Invención Nacional','SISTEMA DE SEPARACIÓN DE COMPONENTES PLASMÁTICOS POR DESCONGELAMIENTO CONTROLADO MEDIANTE UNOS MECANISMOS INTEGRADOS DE TRANSFERENCIA TÉRMICA CONTROLADA Y SEDIMENTACIÓN ACELERADA EN UNOS MEDIOS CONTINUOS','2023-12-29','Publicada sin pago','SERGIO ANDRÉS PULIDO MUÑOZ,LUIS RAFAEL DELGADO LEON,GUILLERMO JAVIER VILÁ ORTIZ','MONICA MARCELA LOZANO GUZMAN','A61B 5/00');</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5004100","NC2023/0018741")</f>
-        <v>NC2023/0018741</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D143" s="2">
-        <v>45289</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I143" t="str">
+      <c r="I142" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J142" s="7"/>
+      <c r="K142" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018741','Patente de Invención Nacional','SISTEMA DE SEPARACIÓN ESPONTÁNEA Y/O INDUCIDA LÍQUIDO-LÍQUIDO PARA OBTENCIÓN DE SOLUCIONES ENRIQUECIDAS EN PROTEÍNAS TERMOESTABLES ACTIVAS','2023-12-29','Publicada sin pago','SERGIO ANDRÉS PULIDO MUÑOZ,LUIS RAFAEL DELGADO LEON,MARIA FERNANDA FLOREZ GONZALEZ,LINA MARIA ESCOBAR NARANJO,ALBA MELINA BECERRA GUEVARA,GUILLERMO JAVIER VILÁ ORTIZ','MONICA MARCELA LOZANO GUZMAN','B01D 11/02,B01D 11/04,B01D 15/00,B01D 15/08,B01D 17/02,B01D 17/04,B01D 19/00,B01D 53/00,B01D 53/14');</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="str">
+    <row r="143" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5656081","NC2025/0004761")</f>
         <v>NC2025/0004761</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45762</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D144" s="2">
-        <v>45762</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="1" t="s">
+      <c r="G143" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I144" t="str">
+      <c r="I143" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J143" s="7"/>
+      <c r="K143" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0004761','Patente de Invención Nacional','ELECTROCOAGULACIÓN FRACCIONADA PARA TRATAR AGUAS RESIDUALES Y PRODUCIR LODOS CON ALTO CONTENIDO DE MATERIA ORGÁNICA','2025-04-15','Publicada sin pago','JUAN JOSE LOZADA CASTRO','JUAN JOSE LOZADA CASTRO','C02F 1/463,C02F 11/16,C02F 11/04,C02F 11/00,C02F 9/00,C02F 3/00,C02F 3/16,C02F 3/30');</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="str">
+    <row r="144" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5638185","NC2025/0004326")</f>
         <v>NC2025/0004326</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45749</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D145" s="2">
-        <v>45749</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="1" t="s">
+      <c r="G144" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="I145" t="str">
+      <c r="I144" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J144" s="7"/>
+      <c r="K144" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0004326','Patente de Invención Nacional','GRANADA AEREA DE DESPLIEGUE CONTROLADO','2025-04-02','Publicada sin pago','Julián Ándres Pérez Tejedor','GUILLERMO ANDRES NAVARRO ROMERO','F41H 11/02,F42B 12/60');</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="str">
+    <row r="145" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5259008","NC2024/0008910")</f>
         <v>NC2024/0008910</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45477</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D146" s="2">
-        <v>45477</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H145" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I146" t="str">
+      <c r="I145" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J145" s="7"/>
+      <c r="K145" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0008910','Patente de Invención Nacional','BOLSA DE PLÁSTICO','2024-07-04','Publicada sin pago','Georg DONNER,Marcel HORNBERG','SILVIA PATIÑO RODRIGUEZ','B65D 33/08,B65D 33/10,B65D 33/28,A45C 3/06');</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="str">
+    <row r="146" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5008962","NC2024/0000065")</f>
         <v>NC2024/0000065</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="B146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45295</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D147" s="2">
-        <v>45295</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I147" t="str">
+      <c r="I146" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J146" s="7"/>
+      <c r="K146" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0000065','Patente de Invención Nacional','CHALECO DE EJERCICIO MULTIFUNCIONAL PARA EL FORTALECIMIENTO MUSCULAR Y LA CORRECCIÓN DE POSTURA','2024-01-04','Publicada sin pago','Federico Restrepo Cucalón ','ANDRES FELIPE RAHN NIETO','A63B 21/00,A63B 21/02,A63B 21/055,A63B 21/06,A63B 22/08,A63B 69/00');</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="str">
+    <row r="147" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5481537","NC2024/0018188")</f>
         <v>NC2024/0018188</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="B147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45654</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D148" s="2">
-        <v>45654</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="G147" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H147" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I148" t="str">
+      <c r="I147" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J147" s="7"/>
+      <c r="K147" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018188','Patente de Invención Nacional','ANDAMIOS FLEXIBLES DE POLICAPROLACTONA/NANOTUBOS DE CARBONO PARA RECUPERACIÓN DE LA FUNCIÓN CONTRÁCTIL DEL MÚSCULO ESTRIADO','2024-12-28','Publicada sin pago','JOSÉ OSCAR GUTIÉRREZ MONTES,MARIO JOSÉ CORREA QUICENO,PAOLA ANDREA NEUTA ARCINIEGAS,ADALBERTO SÁNCHEZ GÓMEZ,JOSÉ  PEÑARANDA ARMBRECHT,JULIO CESAR  CAICEDO ANGULO','FELIPE EDUARDO  FIGUEROA CARDOZO','G01N 33/554,G01N 33/00,C01B 32/158');</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="str">
+    <row r="148" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5517141","NC2024/0018415")</f>
         <v>NC2024/0018415</v>
       </c>
+      <c r="B148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J148" s="7"/>
+      <c r="K148" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018415','Patente de Invención Nacional','SISTEMA DE GENERACIÓN DE BURBUJAS INMERSO EN TANQUE DE PROCESAMIENTO DE LIQUIDOS Y REMOCIÓN DE SOLIDOS SEDIMENTABLES','2024-12-31','Publicada sin pago','CARLOS ANDRES DIAZ PRADA,FLAMINIO GUARIN ARENAS,CARLOS ANDRES CARDONA ROMERO,Natalia Prieto jimenez','LUZ MARA HERRERA HERRERA','C10G 1/00,C10G 2/00,C10G 17/00,C02F 1/00,C02F 3/00,C02F 9/00');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="str">
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5004804","NC2023/0018749")</f>
+        <v>NC2023/0018749</v>
+      </c>
       <c r="B149" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D149" s="2">
-        <v>45657</v>
+        <v>45291</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I149" t="str">
+        <v>521</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J149" s="7"/>
+      <c r="K149" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2024/0018415','Patente de Invención Nacional','SISTEMA DE GENERACIÓN DE BURBUJAS INMERSO EN TANQUE DE PROCESAMIENTO DE LIQUIDOS Y REMOCIÓN DE SOLIDOS SEDIMENTABLES','2024-12-31','Publicada sin pago','CARLOS ANDRES DIAZ PRADA,FLAMINIO GUARIN ARENAS,CARLOS ANDRES CARDONA ROMERO,Natalia Prieto jimenez','LUZ MARA HERRERA HERRERA','C10G 1/00,C10G 2/00,C10G 17/00,C02F 1/00,C02F 3/00,C02F 9/00');</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018749','Patente de Invención Nacional','CANASTA DE ENVÍO Y/O RECOLECCIÓN DE SÓLIDOS DE DIFERENTES FORMAS Y GEOMETRÍAS EN TRAMPAS DE RASPADORES','2023-12-31','Publicada sin pago','OSCAR SANDY NEIRA LOPEZ,EDWIN ENRIQUE GUTIERREZ FUENTES,CHRISTIAM ANTONIO MERCADO GARCÍA,CLAUDIA INÉS PÉREZ MORALES','LUZ MARA HERRERA HERRERA','B08B 9/04,F16L 55/28,C09K 8/42,C09K 8/60,E21B 33/16,B01J 13/00');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5004804","NC2023/0018749")</f>
-        <v>NC2023/0018749</v>
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5004820","NC2023/0018754")</f>
+        <v>NC2023/0018754</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D150" s="2">
         <v>45291</v>
@@ -7721,29 +8630,33 @@
         <v>9</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I150" t="str">
+        <v>524</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J150" s="7"/>
+      <c r="K150" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018749','Patente de Invención Nacional','CANASTA DE ENVÍO Y/O RECOLECCIÓN DE SÓLIDOS DE DIFERENTES FORMAS Y GEOMETRÍAS EN TRAMPAS DE RASPADORES','2023-12-31','Publicada sin pago','OSCAR SANDY NEIRA LOPEZ,EDWIN ENRIQUE GUTIERREZ FUENTES,CHRISTIAM ANTONIO MERCADO GARCÍA,CLAUDIA INÉS PÉREZ MORALES','LUZ MARA HERRERA HERRERA','B08B 9/04,F16L 55/28,C09K 8/42,C09K 8/60,E21B 33/16,B01J 13/00');</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="198" x14ac:dyDescent="0.3">
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018754','Patente de Invención Nacional','TECNOLOGIA TUCANO-UNIDAD DE FILTRACION CON MEMBRANAS OLEOFILICAS SELECTIVAS','2023-12-31','Publicada sin pago','JUAN DAVID MONROY AVILA,RAUL LEONARDO TRIANA ALONSO,Jose Luis Gomez Vergel,Luis Carlos FONSECA HERREÑO,Juan Sebastian RAMIREZ PRADILLA,Gerardo Moya Avendaño,YHITZAK SHAMIR VÁSQUEZ REYES,Jenny Fabiana Solano Martinez,Wilfredo de Jesús Sanchez Fuentes,Fabian Eulises Mogollon Moreno,Alberto Antonio Diaz Camacho,Alvaro David Vergara Polo,Edwar Enrique Ochoa Macea,Mauricio Montenegro Martinez,IRINA DEL PILAR BERNAL CASTRO','LUZ MARA HERRERA HERRERA','B01D 27/08,B01D 29/15,B01D 29/50,B01D 29/52,B01D 29/96,B01D 35/30,B01D 46/00,B01D 46/24');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5004820","NC2023/0018754")</f>
-        <v>NC2023/0018754</v>
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5005212","NC2023/0018757")</f>
+        <v>NC2023/0018757</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D151" s="2">
         <v>45291</v>
@@ -7752,29 +8665,33 @@
         <v>9</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I151" t="str">
+        <v>527</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J151" s="7"/>
+      <c r="K151" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018754','Patente de Invención Nacional','TECNOLOGIA TUCANO-UNIDAD DE FILTRACION CON MEMBRANAS OLEOFILICAS SELECTIVAS','2023-12-31','Publicada sin pago','JUAN DAVID MONROY AVILA,RAUL LEONARDO TRIANA ALONSO,Jose Luis Gomez Vergel,Luis Carlos FONSECA HERREÑO,Juan Sebastian RAMIREZ PRADILLA,Gerardo Moya Avendaño,YHITZAK SHAMIR VÁSQUEZ REYES,Jenny Fabiana Solano Martinez,Wilfredo de Jesús Sanchez Fuentes,Fabian Eulises Mogollon Moreno,Alberto Antonio Diaz Camacho,Alvaro David Vergara Polo,Edwar Enrique Ochoa Macea,Mauricio Montenegro Martinez,IRINA DEL PILAR BERNAL CASTRO','LUZ MARA HERRERA HERRERA','B01D 27/08,B01D 29/15,B01D 29/50,B01D 29/52,B01D 29/96,B01D 35/30,B01D 46/00,B01D 46/24');</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018757','Patente de Invención Nacional','PROCESO DE GENERACIÓN DE VAPOR EN SUBSUELO MEDIANTE LA INYECCIÓN DE NEBLINA PARA RECOBRO DE CRUDO PESADO ','2023-12-31','Publicada sin pago','HECTOR ARNOLDO RODRIGUEZ PRADA,LUIS EDUARDO  GARCIA RODRIGUEZ ,Romel Antonio Perez Romero,Javier Enrique Guerrero','LUZ MARA HERRERA HERRERA','E21B 36/00,E21B 43/00,E21B 43/12,E21B 43/16,E21B 43/22,E21B 43/24,E21B 43/243');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5005212","NC2023/0018757")</f>
-        <v>NC2023/0018757</v>
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5005210","NC2023/0018756")</f>
+        <v>NC2023/0018756</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D152" s="2">
         <v>45291</v>
@@ -7783,29 +8700,33 @@
         <v>9</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="I152" t="str">
+        <v>530</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J152" s="7"/>
+      <c r="K152" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018757','Patente de Invención Nacional','PROCESO DE GENERACIÓN DE VAPOR EN SUBSUELO MEDIANTE LA INYECCIÓN DE NEBLINA PARA RECOBRO DE CRUDO PESADO ','2023-12-31','Publicada sin pago','HECTOR ARNOLDO RODRIGUEZ PRADA,LUIS EDUARDO  GARCIA RODRIGUEZ ,Romel Antonio Perez Romero,Javier Enrique Guerrero','LUZ MARA HERRERA HERRERA','E21B 36/00,E21B 43/00,E21B 43/12,E21B 43/16,E21B 43/22,E21B 43/24,E21B 43/243');</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018756','Patente de Invención Nacional','MATERIALES NANO PARTICULADOS MULTITEMÁTICOS: MÉTODOS DE OBTENCIÓN Y FORMULACIÓN DEL CONTENIDO ELEMENTAL METÁLICO PARA SU APLICACIÓN COMO NANO FERTILIZANTES','2023-12-31','Publicada sin pago','RODRIGO GONZALO TORRES SAÉZ,Cesar Armando CACERES MANTILLA,Juan Sebastian RAMIREZ PRADILLA,Ivan Felipe Valdivieso Niño,Juan Pablo  Arenas Diaz','LUZ MARA HERRERA HERRERA','C01B 33/06,C01G 23/00,C01G 49/00,C01G 51/00,C01G 53/00,C01G 55/00,C25B 1/00,C25B 1/04,C25B 11/04,B01J 23/40,B01J 23/42');</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5005210","NC2023/0018756")</f>
-        <v>NC2023/0018756</v>
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5005237","NC2023/0018759")</f>
+        <v>NC2023/0018759</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D153" s="2">
         <v>45291</v>
@@ -7814,29 +8735,33 @@
         <v>9</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I153" t="str">
+        <v>533</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J153" s="7"/>
+      <c r="K153" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018756','Patente de Invención Nacional','MATERIALES NANO PARTICULADOS MULTITEMÁTICOS: MÉTODOS DE OBTENCIÓN Y FORMULACIÓN DEL CONTENIDO ELEMENTAL METÁLICO PARA SU APLICACIÓN COMO NANO FERTILIZANTES','2023-12-31','Publicada sin pago','RODRIGO GONZALO TORRES SAÉZ,Cesar Armando CACERES MANTILLA,Juan Sebastian RAMIREZ PRADILLA,Ivan Felipe Valdivieso Niño,Juan Pablo  Arenas Diaz','LUZ MARA HERRERA HERRERA','C01B 33/06,C01G 23/00,C01G 49/00,C01G 51/00,C01G 53/00,C01G 55/00,C25B 1/00,C25B 1/04,C25B 11/04,B01J 23/40,B01J 23/42');</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018759','Patente de Invención Nacional','SÍNTESIS DE UNA RESINA DE INTERCAMBIO ANIÓNICA  ','2023-12-31','Publicada sin pago','José Manuel,  USURIAGA TORRES,CESAR ARMANDO CÁCERES MANTILLA,DANIEL ALEJANDRO PATROUILLEAU QUINTANA,Diego Rolando Merchan Arenas,Johan Ernesto Gallo Gualdrón','LUZ MARA HERRERA HERRERA','B01J 20/00,B01D 5/00,B01D 11/02,B01D 11/04,B01D 15/00,B01D 17/02,B01D 17/04,B01D 21/00,B01D 53/02,B01D 53/14,B01D 53/34');</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5005237","NC2023/0018759")</f>
-        <v>NC2023/0018759</v>
+        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5005232","NC2023/0018758")</f>
+        <v>NC2023/0018758</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D154" s="2">
         <v>45291</v>
@@ -7845,108 +8770,89 @@
         <v>9</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="I154" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018759','Patente de Invención Nacional','SÍNTESIS DE UNA RESINA DE INTERCAMBIO ANIÓNICA  ','2023-12-31','Publicada sin pago','José Manuel,  USURIAGA TORRES,CESAR ARMANDO CÁCERES MANTILLA,DANIEL ALEJANDRO PATROUILLEAU QUINTANA,Diego Rolando Merchan Arenas,Johan Ernesto Gallo Gualdrón','LUZ MARA HERRERA HERRERA','B01J 20/00,B01D 5/00,B01D 11/02,B01D 11/04,B01D 15/00,B01D 17/02,B01D 17/04,B01D 21/00,B01D 53/02,B01D 53/14,B01D 53/34');</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="str">
-        <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5005232","NC2023/0018758")</f>
-        <v>NC2023/0018758</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D155" s="2">
-        <v>45291</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="I155" t="str">
+      <c r="I154" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J154" s="7"/>
+      <c r="K154" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2023/0018758','Patente de Invención Nacional','SISTEMA DE MEDICIÓN DE CORROSIÓN E INCRUSTACIÓN EN FONDO DE POZOS INYECTORES ','2023-12-31','Publicada sin pago','Jose Constain SASTOKE MORENO,Jose Adalberto CARRASCAL LOPEZ,MARLY FABIOLA PARRA ERAZO,Jose David Ibañez Sehuanes,EDGAR EDUARDO MAFIOL VASQUEZ','LUZ MARA HERRERA HERRERA','E21B 41/02,E21B 47/00,G01N 17/04,E21B 47/08,E21B 47/10,E21B 47/12,G01V 3/30');</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="str">
+    <row r="155" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5729494","NC2025/0007469")</f>
         <v>NC2025/0007469</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="B155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45813</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D156" s="2">
-        <v>45813</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="H155" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H156" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I156" t="str">
+      <c r="I155" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J155" s="7"/>
+      <c r="K155" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0007469','Patente de Invención Nacional','SISTEMA AUTOMATIZADO DE HIDRATACIÓN DE TALLOS DE PLANTAS','2025-06-05','Publicada sin pago','EDILSON ALEJANDRO OROZCO CASTAÑEDA,JUAN PABLO RUIZ ZULUAGA,ANYELO ALEJANDRO GIRALDO OSPITIA,JHON FREDY HINCAPIE ECHEVERRI,JEISON DANIEL ECHEVERRI LOPEZ','EDILSON ALEJANDRO OROZCO CASTAÑEDA','A01D 37/04,A01D 57/22,A01D 37/00');</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="str">
+    <row r="156" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="str">
         <f>HYPERLINK("http://sipi.sic.gov.co/sipi/View.ashx?5731743","NC2025/0007529")</f>
         <v>NC2025/0007529</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="B156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45814</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D157" s="2">
-        <v>45814</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" s="1" t="s">
+      <c r="G156" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H156" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I157" t="str">
+      <c r="I156" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J156" s="7"/>
+      <c r="K156" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO patentes(expediente,tipoPatente,titulo,fecha,estado,inventor, apoderado,cip ) VALUES('NC2025/0007529','Patente de Invención Nacional','PROCESO PARA LA ELABORACIÓN DE COLÁGENO  MARINO  A BASE DE  ESCAMAS DE PESCADO EN PRESENTACION DE GEL Y DE POLVO.','2025-06-06','Publicada sin pago','CARMEN ELENA AUZ AAGUIRRE','CARMEN ELENA AUZ AAGUIRRE','A23J 1/04,A23J 1/10,A23J 3/06,A23L 17/00,C09H 3/00,A61K 8/18,A61K 8/65');</v>
       </c>
@@ -7955,4 +8861,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF3B87C-E9D2-401A-8F4F-019DF81267BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>